--- a/data/metabolism_data.xlsx
+++ b/data/metabolism_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14284" uniqueCount="1555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14573" uniqueCount="1555">
   <si>
     <t>Sun &amp; Chen-2014-Aquaculture</t>
   </si>
@@ -5068,8 +5068,8 @@
   <dimension ref="A1:X850"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A791" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O811" sqref="O811"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R82" sqref="R82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10675,8 +10675,8 @@
       <c r="O86" s="1">
         <v>24</v>
       </c>
-      <c r="P86" s="1">
-        <v>-9</v>
+      <c r="P86" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q86" s="1">
         <v>17</v>
@@ -10740,8 +10740,8 @@
       <c r="O87" s="1">
         <v>24</v>
       </c>
-      <c r="P87" s="1">
-        <v>-9</v>
+      <c r="P87" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q87" s="1">
         <v>17</v>
@@ -10805,8 +10805,8 @@
       <c r="O88" s="1">
         <v>24</v>
       </c>
-      <c r="P88" s="1">
-        <v>-9</v>
+      <c r="P88" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q88" s="1">
         <v>17</v>
@@ -10870,8 +10870,8 @@
       <c r="O89" s="1">
         <v>24</v>
       </c>
-      <c r="P89" s="1">
-        <v>-9</v>
+      <c r="P89" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q89" s="1">
         <v>17</v>
@@ -10935,8 +10935,8 @@
       <c r="O90" s="1">
         <v>24</v>
       </c>
-      <c r="P90" s="1">
-        <v>-9</v>
+      <c r="P90" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q90" s="1">
         <v>17</v>
@@ -11000,8 +11000,8 @@
       <c r="O91" s="1">
         <v>24</v>
       </c>
-      <c r="P91" s="1">
-        <v>-9</v>
+      <c r="P91" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q91" s="1">
         <v>17</v>
@@ -11065,8 +11065,8 @@
       <c r="O92" s="1">
         <v>24</v>
       </c>
-      <c r="P92" s="1">
-        <v>-9</v>
+      <c r="P92" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q92" s="1">
         <v>17</v>
@@ -11130,8 +11130,8 @@
       <c r="O93" s="1">
         <v>24</v>
       </c>
-      <c r="P93" s="1">
-        <v>-9</v>
+      <c r="P93" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q93" s="1">
         <v>17</v>
@@ -11195,8 +11195,8 @@
       <c r="O94" s="1">
         <v>24</v>
       </c>
-      <c r="P94" s="1">
-        <v>-9</v>
+      <c r="P94" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q94" s="1">
         <v>17</v>
@@ -11260,8 +11260,8 @@
       <c r="O95" s="1">
         <v>24</v>
       </c>
-      <c r="P95" s="1">
-        <v>-9</v>
+      <c r="P95" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q95" s="1">
         <v>17</v>
@@ -11325,8 +11325,8 @@
       <c r="O96" s="1">
         <v>24</v>
       </c>
-      <c r="P96" s="1">
-        <v>-9</v>
+      <c r="P96" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q96" s="1">
         <v>17</v>
@@ -11390,8 +11390,8 @@
       <c r="O97" s="1">
         <v>24</v>
       </c>
-      <c r="P97" s="1">
-        <v>-9</v>
+      <c r="P97" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q97" s="1">
         <v>17</v>
@@ -11455,8 +11455,8 @@
       <c r="O98" s="1">
         <v>24</v>
       </c>
-      <c r="P98" s="1">
-        <v>-9</v>
+      <c r="P98" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q98" s="1">
         <v>17</v>
@@ -11520,8 +11520,8 @@
       <c r="O99" s="1">
         <v>24</v>
       </c>
-      <c r="P99" s="1">
-        <v>-9</v>
+      <c r="P99" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q99" s="1">
         <v>17</v>
@@ -11585,8 +11585,8 @@
       <c r="O100" s="1">
         <v>24</v>
       </c>
-      <c r="P100" s="1">
-        <v>-9</v>
+      <c r="P100" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q100" s="1">
         <v>17</v>
@@ -11650,8 +11650,8 @@
       <c r="O101" s="1">
         <v>24</v>
       </c>
-      <c r="P101" s="1">
-        <v>-9</v>
+      <c r="P101" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q101" s="1">
         <v>17</v>
@@ -11715,8 +11715,8 @@
       <c r="O102" s="1">
         <v>24</v>
       </c>
-      <c r="P102" s="1">
-        <v>-9</v>
+      <c r="P102" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q102" s="1">
         <v>17</v>
@@ -11780,8 +11780,8 @@
       <c r="O103" s="1">
         <v>24</v>
       </c>
-      <c r="P103" s="1">
-        <v>-9</v>
+      <c r="P103" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q103" s="1">
         <v>17</v>
@@ -11845,8 +11845,8 @@
       <c r="O104" s="1">
         <v>24</v>
       </c>
-      <c r="P104" s="1">
-        <v>-9</v>
+      <c r="P104" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q104" s="1">
         <v>17</v>
@@ -11910,8 +11910,8 @@
       <c r="O105" s="1">
         <v>24</v>
       </c>
-      <c r="P105" s="1">
-        <v>-9</v>
+      <c r="P105" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q105" s="1">
         <v>17</v>
@@ -11975,8 +11975,8 @@
       <c r="O106" s="1">
         <v>24</v>
       </c>
-      <c r="P106" s="1">
-        <v>-9</v>
+      <c r="P106" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q106" s="1">
         <v>17</v>
@@ -12040,8 +12040,8 @@
       <c r="O107" s="1">
         <v>24</v>
       </c>
-      <c r="P107" s="1">
-        <v>-9</v>
+      <c r="P107" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q107" s="1">
         <v>17</v>
@@ -12105,8 +12105,8 @@
       <c r="O108" s="1">
         <v>24</v>
       </c>
-      <c r="P108" s="1">
-        <v>-9</v>
+      <c r="P108" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q108" s="1">
         <v>17</v>
@@ -12170,8 +12170,8 @@
       <c r="O109" s="1">
         <v>24</v>
       </c>
-      <c r="P109" s="1">
-        <v>-9</v>
+      <c r="P109" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q109" s="1">
         <v>17</v>
@@ -12235,8 +12235,8 @@
       <c r="O110" s="1">
         <v>24</v>
       </c>
-      <c r="P110" s="1">
-        <v>-9</v>
+      <c r="P110" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q110" s="1">
         <v>17</v>
@@ -12300,8 +12300,8 @@
       <c r="O111" s="1">
         <v>24</v>
       </c>
-      <c r="P111" s="1">
-        <v>-9</v>
+      <c r="P111" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q111" s="1">
         <v>17</v>
@@ -12365,8 +12365,8 @@
       <c r="O112" s="1">
         <v>24</v>
       </c>
-      <c r="P112" s="1">
-        <v>-9</v>
+      <c r="P112" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q112" s="1">
         <v>17</v>
@@ -12430,8 +12430,8 @@
       <c r="O113" s="1">
         <v>24</v>
       </c>
-      <c r="P113" s="1">
-        <v>-9</v>
+      <c r="P113" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q113" s="1">
         <v>17</v>
@@ -12495,8 +12495,8 @@
       <c r="O114" s="1">
         <v>24</v>
       </c>
-      <c r="P114" s="1">
-        <v>-9</v>
+      <c r="P114" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q114" s="1">
         <v>17</v>
@@ -12560,8 +12560,8 @@
       <c r="O115" s="1">
         <v>24</v>
       </c>
-      <c r="P115" s="1">
-        <v>-9</v>
+      <c r="P115" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q115" s="1">
         <v>17</v>
@@ -12625,8 +12625,8 @@
       <c r="O116" s="1">
         <v>24</v>
       </c>
-      <c r="P116" s="1">
-        <v>-9</v>
+      <c r="P116" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q116" s="1">
         <v>17</v>
@@ -12690,8 +12690,8 @@
       <c r="O117" s="1">
         <v>24</v>
       </c>
-      <c r="P117" s="1">
-        <v>-9</v>
+      <c r="P117" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q117" s="1">
         <v>17</v>
@@ -12755,8 +12755,8 @@
       <c r="O118" s="1">
         <v>24</v>
       </c>
-      <c r="P118" s="1">
-        <v>-9</v>
+      <c r="P118" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q118" s="1">
         <v>17</v>
@@ -12820,8 +12820,8 @@
       <c r="O119" s="1">
         <v>24</v>
       </c>
-      <c r="P119" s="1">
-        <v>-9</v>
+      <c r="P119" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q119" s="1">
         <v>17</v>
@@ -12885,8 +12885,8 @@
       <c r="O120" s="1">
         <v>24</v>
       </c>
-      <c r="P120" s="1">
-        <v>-9</v>
+      <c r="P120" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q120" s="1">
         <v>17</v>
@@ -12950,8 +12950,8 @@
       <c r="O121" s="1">
         <v>24</v>
       </c>
-      <c r="P121" s="1">
-        <v>-9</v>
+      <c r="P121" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q121" s="1">
         <v>17</v>
@@ -13015,8 +13015,8 @@
       <c r="O122" s="1">
         <v>24</v>
       </c>
-      <c r="P122" s="1">
-        <v>-9</v>
+      <c r="P122" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q122" s="1">
         <v>17</v>
@@ -13080,8 +13080,8 @@
       <c r="O123" s="1">
         <v>24</v>
       </c>
-      <c r="P123" s="1">
-        <v>-9</v>
+      <c r="P123" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q123" s="1">
         <v>17</v>
@@ -13145,8 +13145,8 @@
       <c r="O124" s="1">
         <v>24</v>
       </c>
-      <c r="P124" s="1">
-        <v>-9</v>
+      <c r="P124" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q124" s="1">
         <v>17</v>
@@ -13210,8 +13210,8 @@
       <c r="O125" s="1">
         <v>24</v>
       </c>
-      <c r="P125" s="1">
-        <v>-9</v>
+      <c r="P125" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q125" s="1">
         <v>17</v>
@@ -13275,8 +13275,8 @@
       <c r="O126" s="1">
         <v>24</v>
       </c>
-      <c r="P126" s="1">
-        <v>-9</v>
+      <c r="P126" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q126" s="1">
         <v>17</v>
@@ -13340,8 +13340,8 @@
       <c r="O127" s="1">
         <v>24</v>
       </c>
-      <c r="P127" s="1">
-        <v>-9</v>
+      <c r="P127" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q127" s="1">
         <v>17</v>
@@ -13405,8 +13405,8 @@
       <c r="O128" s="1">
         <v>24</v>
       </c>
-      <c r="P128" s="1">
-        <v>-9</v>
+      <c r="P128" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q128" s="1">
         <v>17</v>
@@ -13470,8 +13470,8 @@
       <c r="O129" s="1">
         <v>24</v>
       </c>
-      <c r="P129" s="1">
-        <v>-9</v>
+      <c r="P129" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q129" s="1">
         <v>17</v>
@@ -13535,8 +13535,8 @@
       <c r="O130" s="1">
         <v>24</v>
       </c>
-      <c r="P130" s="1">
-        <v>-9</v>
+      <c r="P130" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q130" s="1">
         <v>17</v>
@@ -13600,8 +13600,8 @@
       <c r="O131" s="1">
         <v>24</v>
       </c>
-      <c r="P131" s="1">
-        <v>-9</v>
+      <c r="P131" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q131" s="1">
         <v>17</v>
@@ -13665,8 +13665,8 @@
       <c r="O132" s="1">
         <v>24</v>
       </c>
-      <c r="P132" s="1">
-        <v>-9</v>
+      <c r="P132" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q132" s="1">
         <v>17</v>
@@ -13730,8 +13730,8 @@
       <c r="O133" s="1">
         <v>24</v>
       </c>
-      <c r="P133" s="1">
-        <v>-9</v>
+      <c r="P133" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q133" s="1">
         <v>17</v>
@@ -13795,8 +13795,8 @@
       <c r="O134" s="1">
         <v>24</v>
       </c>
-      <c r="P134" s="1">
-        <v>-9</v>
+      <c r="P134" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q134" s="1">
         <v>17</v>
@@ -13860,8 +13860,8 @@
       <c r="O135" s="1">
         <v>24</v>
       </c>
-      <c r="P135" s="1">
-        <v>-9</v>
+      <c r="P135" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q135" s="1">
         <v>17</v>
@@ -13925,8 +13925,8 @@
       <c r="O136" s="1">
         <v>24</v>
       </c>
-      <c r="P136" s="1">
-        <v>-9</v>
+      <c r="P136" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q136" s="1">
         <v>17</v>
@@ -13990,8 +13990,8 @@
       <c r="O137" s="1">
         <v>24</v>
       </c>
-      <c r="P137" s="1">
-        <v>-9</v>
+      <c r="P137" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q137" s="1">
         <v>17</v>
@@ -14055,8 +14055,8 @@
       <c r="O138" s="1">
         <v>24</v>
       </c>
-      <c r="P138" s="1">
-        <v>-9</v>
+      <c r="P138" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q138" s="1">
         <v>17</v>
@@ -14120,8 +14120,8 @@
       <c r="O139" s="1">
         <v>24</v>
       </c>
-      <c r="P139" s="1">
-        <v>-9</v>
+      <c r="P139" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q139" s="1">
         <v>17</v>
@@ -14185,8 +14185,8 @@
       <c r="O140" s="1">
         <v>24</v>
       </c>
-      <c r="P140" s="1">
-        <v>-9</v>
+      <c r="P140" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q140" s="1">
         <v>17</v>
@@ -14250,8 +14250,8 @@
       <c r="O141" s="1">
         <v>24</v>
       </c>
-      <c r="P141" s="1">
-        <v>-9</v>
+      <c r="P141" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q141" s="1">
         <v>17</v>
@@ -14315,8 +14315,8 @@
       <c r="O142" s="1">
         <v>24</v>
       </c>
-      <c r="P142" s="1">
-        <v>-9</v>
+      <c r="P142" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q142" s="1">
         <v>17</v>
@@ -14380,8 +14380,8 @@
       <c r="O143" s="1">
         <v>24</v>
       </c>
-      <c r="P143" s="1">
-        <v>-9</v>
+      <c r="P143" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q143" s="1">
         <v>17</v>
@@ -14445,8 +14445,8 @@
       <c r="O144" s="1">
         <v>24</v>
       </c>
-      <c r="P144" s="1">
-        <v>-9</v>
+      <c r="P144" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q144" s="1">
         <v>17</v>
@@ -14510,8 +14510,8 @@
       <c r="O145" s="1">
         <v>24</v>
       </c>
-      <c r="P145" s="1">
-        <v>-9</v>
+      <c r="P145" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q145" s="1">
         <v>17</v>
@@ -14575,8 +14575,8 @@
       <c r="O146" s="1">
         <v>24</v>
       </c>
-      <c r="P146" s="1">
-        <v>-9</v>
+      <c r="P146" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q146" s="1">
         <v>17</v>
@@ -14640,8 +14640,8 @@
       <c r="O147" s="1">
         <v>24</v>
       </c>
-      <c r="P147" s="1">
-        <v>-9</v>
+      <c r="P147" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q147" s="1">
         <v>17</v>
@@ -14705,8 +14705,8 @@
       <c r="O148" s="1">
         <v>24</v>
       </c>
-      <c r="P148" s="1">
-        <v>-9</v>
+      <c r="P148" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q148" s="1">
         <v>17</v>
@@ -14770,8 +14770,8 @@
       <c r="O149" s="1">
         <v>24</v>
       </c>
-      <c r="P149" s="1">
-        <v>-9</v>
+      <c r="P149" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q149" s="1">
         <v>17</v>
@@ -14835,8 +14835,8 @@
       <c r="O150" s="1">
         <v>24</v>
       </c>
-      <c r="P150" s="1">
-        <v>-9</v>
+      <c r="P150" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q150" s="1">
         <v>17</v>
@@ -14900,8 +14900,8 @@
       <c r="O151" s="1">
         <v>24</v>
       </c>
-      <c r="P151" s="1">
-        <v>-9</v>
+      <c r="P151" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q151" s="1">
         <v>17</v>
@@ -14965,8 +14965,8 @@
       <c r="O152" s="1">
         <v>24</v>
       </c>
-      <c r="P152" s="1">
-        <v>-9</v>
+      <c r="P152" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q152" s="1">
         <v>17</v>
@@ -15030,8 +15030,8 @@
       <c r="O153" s="1">
         <v>24</v>
       </c>
-      <c r="P153" s="1">
-        <v>-9</v>
+      <c r="P153" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q153" s="1">
         <v>17</v>
@@ -15095,8 +15095,8 @@
       <c r="O154" s="1">
         <v>24</v>
       </c>
-      <c r="P154" s="1">
-        <v>-9</v>
+      <c r="P154" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q154" s="1">
         <v>17</v>
@@ -15160,8 +15160,8 @@
       <c r="O155" s="1">
         <v>24</v>
       </c>
-      <c r="P155" s="1">
-        <v>-9</v>
+      <c r="P155" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q155" s="1">
         <v>17</v>
@@ -15225,8 +15225,8 @@
       <c r="O156" s="1">
         <v>24</v>
       </c>
-      <c r="P156" s="1">
-        <v>-9</v>
+      <c r="P156" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q156" s="1">
         <v>17</v>
@@ -15290,8 +15290,8 @@
       <c r="O157" s="1">
         <v>24</v>
       </c>
-      <c r="P157" s="1">
-        <v>-9</v>
+      <c r="P157" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q157" s="1">
         <v>17</v>
@@ -15355,8 +15355,8 @@
       <c r="O158" s="1">
         <v>24</v>
       </c>
-      <c r="P158" s="1">
-        <v>-9</v>
+      <c r="P158" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q158" s="1">
         <v>17</v>
@@ -15420,8 +15420,8 @@
       <c r="O159" s="1">
         <v>24</v>
       </c>
-      <c r="P159" s="1">
-        <v>-9</v>
+      <c r="P159" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q159" s="1">
         <v>17</v>
@@ -15485,8 +15485,8 @@
       <c r="O160" s="1">
         <v>24</v>
       </c>
-      <c r="P160" s="1">
-        <v>-9</v>
+      <c r="P160" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q160" s="1">
         <v>17</v>
@@ -15550,8 +15550,8 @@
       <c r="O161" s="1">
         <v>24</v>
       </c>
-      <c r="P161" s="1">
-        <v>-9</v>
+      <c r="P161" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q161" s="1">
         <v>17</v>
@@ -15615,8 +15615,8 @@
       <c r="O162" s="1">
         <v>20</v>
       </c>
-      <c r="P162" s="1">
-        <v>-9</v>
+      <c r="P162" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q162" s="5">
         <v>15</v>
@@ -15680,8 +15680,8 @@
       <c r="O163" s="1">
         <v>20</v>
       </c>
-      <c r="P163" s="1">
-        <v>-9</v>
+      <c r="P163" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q163" s="5">
         <v>15</v>
@@ -15745,8 +15745,8 @@
       <c r="O164" s="1">
         <v>20</v>
       </c>
-      <c r="P164" s="1">
-        <v>-9</v>
+      <c r="P164" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q164" s="5">
         <v>15</v>
@@ -15810,8 +15810,8 @@
       <c r="O165" s="1">
         <v>20</v>
       </c>
-      <c r="P165" s="1">
-        <v>-9</v>
+      <c r="P165" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q165" s="5">
         <v>15</v>
@@ -15875,8 +15875,8 @@
       <c r="O166" s="1">
         <v>20</v>
       </c>
-      <c r="P166" s="1">
-        <v>-9</v>
+      <c r="P166" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q166" s="5">
         <v>15</v>
@@ -15940,8 +15940,8 @@
       <c r="O167" s="1">
         <v>20</v>
       </c>
-      <c r="P167" s="1">
-        <v>-9</v>
+      <c r="P167" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q167" s="5">
         <v>15</v>
@@ -16005,8 +16005,8 @@
       <c r="O168" s="1">
         <v>20</v>
       </c>
-      <c r="P168" s="1">
-        <v>-9</v>
+      <c r="P168" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q168" s="5">
         <v>15</v>
@@ -16070,8 +16070,8 @@
       <c r="O169" s="1">
         <v>20</v>
       </c>
-      <c r="P169" s="1">
-        <v>-9</v>
+      <c r="P169" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q169" s="5">
         <v>15</v>
@@ -16135,8 +16135,8 @@
       <c r="O170" s="1">
         <v>20</v>
       </c>
-      <c r="P170" s="1">
-        <v>-9</v>
+      <c r="P170" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q170" s="5">
         <v>15</v>
@@ -16200,8 +16200,8 @@
       <c r="O171" s="1">
         <v>20</v>
       </c>
-      <c r="P171" s="1">
-        <v>-9</v>
+      <c r="P171" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q171" s="5">
         <v>15</v>
@@ -16265,8 +16265,8 @@
       <c r="O172" s="1">
         <v>20</v>
       </c>
-      <c r="P172" s="1">
-        <v>-9</v>
+      <c r="P172" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q172" s="5">
         <v>15</v>
@@ -16330,8 +16330,8 @@
       <c r="O173" s="1">
         <v>20</v>
       </c>
-      <c r="P173" s="1">
-        <v>-9</v>
+      <c r="P173" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q173" s="5">
         <v>15</v>
@@ -16395,8 +16395,8 @@
       <c r="O174" s="1">
         <v>20</v>
       </c>
-      <c r="P174" s="1">
-        <v>-9</v>
+      <c r="P174" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q174" s="5">
         <v>15</v>
@@ -16460,8 +16460,8 @@
       <c r="O175" s="1">
         <v>20</v>
       </c>
-      <c r="P175" s="1">
-        <v>-9</v>
+      <c r="P175" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q175" s="5">
         <v>15</v>
@@ -16525,8 +16525,8 @@
       <c r="O176" s="1">
         <v>20</v>
       </c>
-      <c r="P176" s="1">
-        <v>-9</v>
+      <c r="P176" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q176" s="5">
         <v>15</v>
@@ -16590,8 +16590,8 @@
       <c r="O177" s="1">
         <v>20</v>
       </c>
-      <c r="P177" s="1">
-        <v>-9</v>
+      <c r="P177" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q177" s="5">
         <v>15</v>
@@ -16655,8 +16655,8 @@
       <c r="O178" s="1">
         <v>20</v>
       </c>
-      <c r="P178" s="1">
-        <v>-9</v>
+      <c r="P178" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q178" s="5">
         <v>15</v>
@@ -16720,8 +16720,8 @@
       <c r="O179" s="1">
         <v>20</v>
       </c>
-      <c r="P179" s="1">
-        <v>-9</v>
+      <c r="P179" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q179" s="5">
         <v>15</v>
@@ -16785,8 +16785,8 @@
       <c r="O180" s="1">
         <v>20</v>
       </c>
-      <c r="P180" s="1">
-        <v>-9</v>
+      <c r="P180" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q180" s="5">
         <v>15</v>
@@ -16850,8 +16850,8 @@
       <c r="O181" s="1">
         <v>20</v>
       </c>
-      <c r="P181" s="1">
-        <v>-9</v>
+      <c r="P181" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q181" s="5">
         <v>15</v>
@@ -16915,8 +16915,8 @@
       <c r="O182" s="1">
         <v>20</v>
       </c>
-      <c r="P182" s="1">
-        <v>-9</v>
+      <c r="P182" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q182" s="5">
         <v>15</v>
@@ -16980,8 +16980,8 @@
       <c r="O183" s="1">
         <v>20</v>
       </c>
-      <c r="P183" s="1">
-        <v>-9</v>
+      <c r="P183" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q183" s="5">
         <v>15</v>
@@ -17045,8 +17045,8 @@
       <c r="O184" s="1">
         <v>20</v>
       </c>
-      <c r="P184" s="1">
-        <v>-9</v>
+      <c r="P184" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q184" s="5">
         <v>15</v>
@@ -17110,8 +17110,8 @@
       <c r="O185" s="1">
         <v>20</v>
       </c>
-      <c r="P185" s="1">
-        <v>-9</v>
+      <c r="P185" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q185" s="5">
         <v>15</v>
@@ -17175,8 +17175,8 @@
       <c r="O186" s="1">
         <v>20</v>
       </c>
-      <c r="P186" s="1">
-        <v>-9</v>
+      <c r="P186" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q186" s="5">
         <v>15</v>
@@ -17240,8 +17240,8 @@
       <c r="O187" s="1">
         <v>20</v>
       </c>
-      <c r="P187" s="1">
-        <v>-9</v>
+      <c r="P187" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q187" s="5">
         <v>15</v>
@@ -17305,8 +17305,8 @@
       <c r="O188" s="1">
         <v>20</v>
       </c>
-      <c r="P188" s="1">
-        <v>-9</v>
+      <c r="P188" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q188" s="5">
         <v>15</v>
@@ -17370,8 +17370,8 @@
       <c r="O189" s="1">
         <v>20</v>
       </c>
-      <c r="P189" s="1">
-        <v>-9</v>
+      <c r="P189" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q189" s="5">
         <v>15</v>
@@ -17435,8 +17435,8 @@
       <c r="O190" s="1">
         <v>20</v>
       </c>
-      <c r="P190" s="1">
-        <v>-9</v>
+      <c r="P190" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q190" s="5">
         <v>15</v>
@@ -17500,8 +17500,8 @@
       <c r="O191" s="1">
         <v>20</v>
       </c>
-      <c r="P191" s="1">
-        <v>-9</v>
+      <c r="P191" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q191" s="5">
         <v>15</v>
@@ -17565,8 +17565,8 @@
       <c r="O192" s="1">
         <v>20</v>
       </c>
-      <c r="P192" s="1">
-        <v>-9</v>
+      <c r="P192" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q192" s="5">
         <v>15</v>
@@ -17630,8 +17630,8 @@
       <c r="O193" s="1">
         <v>20</v>
       </c>
-      <c r="P193" s="1">
-        <v>-9</v>
+      <c r="P193" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q193" s="5">
         <v>15</v>
@@ -17695,8 +17695,8 @@
       <c r="O194" s="1">
         <v>20</v>
       </c>
-      <c r="P194" s="1">
-        <v>-9</v>
+      <c r="P194" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q194" s="5">
         <v>15</v>
@@ -17760,8 +17760,8 @@
       <c r="O195" s="1">
         <v>20</v>
       </c>
-      <c r="P195" s="1">
-        <v>-9</v>
+      <c r="P195" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q195" s="5">
         <v>15</v>
@@ -17825,8 +17825,8 @@
       <c r="O196" s="1">
         <v>20</v>
       </c>
-      <c r="P196" s="1">
-        <v>-9</v>
+      <c r="P196" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q196" s="5">
         <v>15</v>
@@ -17890,8 +17890,8 @@
       <c r="O197" s="1">
         <v>20</v>
       </c>
-      <c r="P197" s="1">
-        <v>-9</v>
+      <c r="P197" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q197" s="5">
         <v>15</v>
@@ -17955,8 +17955,8 @@
       <c r="O198" s="1">
         <v>20</v>
       </c>
-      <c r="P198" s="1">
-        <v>-9</v>
+      <c r="P198" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q198" s="5">
         <v>15</v>
@@ -18020,8 +18020,8 @@
       <c r="O199" s="1">
         <v>20</v>
       </c>
-      <c r="P199" s="1">
-        <v>-9</v>
+      <c r="P199" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q199" s="5">
         <v>15</v>
@@ -18085,8 +18085,8 @@
       <c r="O200" s="1">
         <v>20</v>
       </c>
-      <c r="P200" s="1">
-        <v>-9</v>
+      <c r="P200" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q200" s="5">
         <v>15</v>
@@ -18150,8 +18150,8 @@
       <c r="O201" s="1">
         <v>20</v>
       </c>
-      <c r="P201" s="1">
-        <v>-9</v>
+      <c r="P201" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q201" s="5">
         <v>15</v>
@@ -18215,8 +18215,8 @@
       <c r="O202" s="1">
         <v>20</v>
       </c>
-      <c r="P202" s="1">
-        <v>-9</v>
+      <c r="P202" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q202" s="5">
         <v>15</v>
@@ -18280,8 +18280,8 @@
       <c r="O203" s="1">
         <v>20</v>
       </c>
-      <c r="P203" s="1">
-        <v>-9</v>
+      <c r="P203" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q203" s="5">
         <v>15</v>
@@ -18345,8 +18345,8 @@
       <c r="O204" s="1">
         <v>20</v>
       </c>
-      <c r="P204" s="1">
-        <v>-9</v>
+      <c r="P204" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q204" s="5">
         <v>15</v>
@@ -18410,8 +18410,8 @@
       <c r="O205" s="1">
         <v>20</v>
       </c>
-      <c r="P205" s="1">
-        <v>-9</v>
+      <c r="P205" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q205" s="5">
         <v>15</v>
@@ -18475,8 +18475,8 @@
       <c r="O206" s="1">
         <v>20</v>
       </c>
-      <c r="P206" s="1">
-        <v>-9</v>
+      <c r="P206" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q206" s="5">
         <v>15</v>
@@ -18540,8 +18540,8 @@
       <c r="O207" s="1">
         <v>20</v>
       </c>
-      <c r="P207" s="1">
-        <v>-9</v>
+      <c r="P207" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q207" s="5">
         <v>15</v>
@@ -18605,8 +18605,8 @@
       <c r="O208" s="1">
         <v>20</v>
       </c>
-      <c r="P208" s="1">
-        <v>-9</v>
+      <c r="P208" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q208" s="5">
         <v>15</v>
@@ -18670,8 +18670,8 @@
       <c r="O209" s="1">
         <v>20</v>
       </c>
-      <c r="P209" s="1">
-        <v>-9</v>
+      <c r="P209" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q209" s="5">
         <v>15</v>
@@ -18735,8 +18735,8 @@
       <c r="O210" s="1">
         <v>20</v>
       </c>
-      <c r="P210" s="1">
-        <v>-9</v>
+      <c r="P210" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q210" s="5">
         <v>15</v>
@@ -18800,8 +18800,8 @@
       <c r="O211" s="1">
         <v>20</v>
       </c>
-      <c r="P211" s="1">
-        <v>-9</v>
+      <c r="P211" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q211" s="5">
         <v>15</v>
@@ -18865,8 +18865,8 @@
       <c r="O212" s="1">
         <v>20</v>
       </c>
-      <c r="P212" s="1">
-        <v>-9</v>
+      <c r="P212" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q212" s="5">
         <v>15</v>
@@ -18930,8 +18930,8 @@
       <c r="O213" s="1">
         <v>20</v>
       </c>
-      <c r="P213" s="1">
-        <v>-9</v>
+      <c r="P213" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q213" s="5">
         <v>15</v>
@@ -18995,8 +18995,8 @@
       <c r="O214" s="1">
         <v>20</v>
       </c>
-      <c r="P214" s="1">
-        <v>-9</v>
+      <c r="P214" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q214" s="5">
         <v>15</v>
@@ -19060,8 +19060,8 @@
       <c r="O215" s="1">
         <v>20</v>
       </c>
-      <c r="P215" s="1">
-        <v>-9</v>
+      <c r="P215" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q215" s="5">
         <v>15</v>
@@ -19125,8 +19125,8 @@
       <c r="O216" s="1">
         <v>20</v>
       </c>
-      <c r="P216" s="1">
-        <v>-9</v>
+      <c r="P216" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q216" s="5">
         <v>15</v>
@@ -19190,8 +19190,8 @@
       <c r="O217" s="1">
         <v>20</v>
       </c>
-      <c r="P217" s="1">
-        <v>-9</v>
+      <c r="P217" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q217" s="5">
         <v>15</v>
@@ -19255,8 +19255,8 @@
       <c r="O218" s="1">
         <v>20</v>
       </c>
-      <c r="P218" s="1">
-        <v>-9</v>
+      <c r="P218" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q218" s="5">
         <v>15</v>
@@ -19320,8 +19320,8 @@
       <c r="O219" s="1">
         <v>20</v>
       </c>
-      <c r="P219" s="1">
-        <v>-9</v>
+      <c r="P219" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q219" s="5">
         <v>15</v>
@@ -19385,8 +19385,8 @@
       <c r="O220" s="1">
         <v>20</v>
       </c>
-      <c r="P220" s="1">
-        <v>-9</v>
+      <c r="P220" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q220" s="5">
         <v>15</v>
@@ -19450,8 +19450,8 @@
       <c r="O221" s="1">
         <v>20</v>
       </c>
-      <c r="P221" s="1">
-        <v>-9</v>
+      <c r="P221" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q221" s="5">
         <v>15</v>
@@ -19515,8 +19515,8 @@
       <c r="O222" s="1">
         <v>20</v>
       </c>
-      <c r="P222" s="1">
-        <v>-9</v>
+      <c r="P222" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q222" s="5">
         <v>15</v>
@@ -19580,8 +19580,8 @@
       <c r="O223" s="1">
         <v>20</v>
       </c>
-      <c r="P223" s="1">
-        <v>-9</v>
+      <c r="P223" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q223" s="5">
         <v>15</v>
@@ -20945,8 +20945,8 @@
       <c r="O244" s="1">
         <v>25</v>
       </c>
-      <c r="P244" s="1">
-        <v>-9</v>
+      <c r="P244" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q244" s="1" t="s">
         <v>70</v>
@@ -21010,8 +21010,8 @@
       <c r="O245" s="1">
         <v>25</v>
       </c>
-      <c r="P245" s="1">
-        <v>-9</v>
+      <c r="P245" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q245" s="1" t="s">
         <v>70</v>
@@ -21075,8 +21075,8 @@
       <c r="O246" s="1">
         <v>25</v>
       </c>
-      <c r="P246" s="1">
-        <v>-9</v>
+      <c r="P246" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q246" s="1" t="s">
         <v>70</v>
@@ -21140,8 +21140,8 @@
       <c r="O247" s="1">
         <v>25</v>
       </c>
-      <c r="P247" s="1">
-        <v>-9</v>
+      <c r="P247" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q247" s="1" t="s">
         <v>70</v>
@@ -21205,8 +21205,8 @@
       <c r="O248" s="1">
         <v>25</v>
       </c>
-      <c r="P248" s="1">
-        <v>-9</v>
+      <c r="P248" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q248" s="1" t="s">
         <v>70</v>
@@ -21270,8 +21270,8 @@
       <c r="O249" s="1">
         <v>25</v>
       </c>
-      <c r="P249" s="1">
-        <v>-9</v>
+      <c r="P249" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q249" s="1" t="s">
         <v>70</v>
@@ -21335,8 +21335,8 @@
       <c r="O250" s="1">
         <v>25</v>
       </c>
-      <c r="P250" s="1">
-        <v>-9</v>
+      <c r="P250" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q250" s="1" t="s">
         <v>70</v>
@@ -21400,8 +21400,8 @@
       <c r="O251" s="1">
         <v>25</v>
       </c>
-      <c r="P251" s="1">
-        <v>-9</v>
+      <c r="P251" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q251" s="1" t="s">
         <v>70</v>
@@ -21465,8 +21465,8 @@
       <c r="O252" s="1">
         <v>25</v>
       </c>
-      <c r="P252" s="1">
-        <v>-9</v>
+      <c r="P252" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q252" s="1" t="s">
         <v>70</v>
@@ -21530,8 +21530,8 @@
       <c r="O253" s="1">
         <v>25</v>
       </c>
-      <c r="P253" s="1">
-        <v>-9</v>
+      <c r="P253" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q253" s="1" t="s">
         <v>70</v>
@@ -21595,8 +21595,8 @@
       <c r="O254" s="1">
         <v>25</v>
       </c>
-      <c r="P254" s="1">
-        <v>-9</v>
+      <c r="P254" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q254" s="1" t="s">
         <v>70</v>
@@ -21660,8 +21660,8 @@
       <c r="O255" s="1">
         <v>25</v>
       </c>
-      <c r="P255" s="1">
-        <v>-9</v>
+      <c r="P255" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q255" s="1" t="s">
         <v>70</v>
@@ -21725,8 +21725,8 @@
       <c r="O256" s="1">
         <v>25</v>
       </c>
-      <c r="P256" s="1">
-        <v>-9</v>
+      <c r="P256" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q256" s="1" t="s">
         <v>70</v>
@@ -21790,8 +21790,8 @@
       <c r="O257" s="1">
         <v>25</v>
       </c>
-      <c r="P257" s="1">
-        <v>-9</v>
+      <c r="P257" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q257" s="1" t="s">
         <v>70</v>
@@ -21855,8 +21855,8 @@
       <c r="O258" s="1">
         <v>25</v>
       </c>
-      <c r="P258" s="1">
-        <v>-9</v>
+      <c r="P258" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q258" s="1" t="s">
         <v>70</v>
@@ -21920,8 +21920,8 @@
       <c r="O259" s="1">
         <v>25</v>
       </c>
-      <c r="P259" s="1">
-        <v>-9</v>
+      <c r="P259" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q259" s="1" t="s">
         <v>70</v>
@@ -21985,8 +21985,8 @@
       <c r="O260" s="1">
         <v>25</v>
       </c>
-      <c r="P260" s="1">
-        <v>-9</v>
+      <c r="P260" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q260" s="1" t="s">
         <v>70</v>
@@ -22050,8 +22050,8 @@
       <c r="O261" s="1">
         <v>25</v>
       </c>
-      <c r="P261" s="1">
-        <v>-9</v>
+      <c r="P261" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q261" s="1" t="s">
         <v>70</v>
@@ -22115,8 +22115,8 @@
       <c r="O262" s="1">
         <v>25</v>
       </c>
-      <c r="P262" s="1">
-        <v>-9</v>
+      <c r="P262" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q262" s="1" t="s">
         <v>70</v>
@@ -22180,8 +22180,8 @@
       <c r="O263" s="1">
         <v>25</v>
       </c>
-      <c r="P263" s="1">
-        <v>-9</v>
+      <c r="P263" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q263" s="1" t="s">
         <v>70</v>
@@ -22245,8 +22245,8 @@
       <c r="O264" s="1">
         <v>25</v>
       </c>
-      <c r="P264" s="1">
-        <v>-9</v>
+      <c r="P264" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q264" s="1" t="s">
         <v>70</v>
@@ -22310,8 +22310,8 @@
       <c r="O265" s="1">
         <v>25</v>
       </c>
-      <c r="P265" s="1">
-        <v>-9</v>
+      <c r="P265" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q265" s="1" t="s">
         <v>70</v>
@@ -22375,8 +22375,8 @@
       <c r="O266" s="1">
         <v>25</v>
       </c>
-      <c r="P266" s="1">
-        <v>-9</v>
+      <c r="P266" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q266" s="1" t="s">
         <v>70</v>
@@ -22440,8 +22440,8 @@
       <c r="O267" s="1">
         <v>25</v>
       </c>
-      <c r="P267" s="1">
-        <v>-9</v>
+      <c r="P267" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q267" s="1" t="s">
         <v>70</v>
@@ -22505,8 +22505,8 @@
       <c r="O268" s="1">
         <v>25</v>
       </c>
-      <c r="P268" s="1">
-        <v>-9</v>
+      <c r="P268" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q268" s="1" t="s">
         <v>70</v>
@@ -22570,8 +22570,8 @@
       <c r="O269" s="1">
         <v>25</v>
       </c>
-      <c r="P269" s="1">
-        <v>-9</v>
+      <c r="P269" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q269" s="1" t="s">
         <v>70</v>
@@ -22635,8 +22635,8 @@
       <c r="O270" s="1">
         <v>25</v>
       </c>
-      <c r="P270" s="1">
-        <v>-9</v>
+      <c r="P270" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q270" s="1" t="s">
         <v>70</v>
@@ -22700,8 +22700,8 @@
       <c r="O271" s="1">
         <v>25</v>
       </c>
-      <c r="P271" s="1">
-        <v>-9</v>
+      <c r="P271" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q271" s="1" t="s">
         <v>70</v>
@@ -22765,8 +22765,8 @@
       <c r="O272" s="1">
         <v>25</v>
       </c>
-      <c r="P272" s="1">
-        <v>-9</v>
+      <c r="P272" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q272" s="1" t="s">
         <v>70</v>
@@ -22830,8 +22830,8 @@
       <c r="O273" s="1">
         <v>25</v>
       </c>
-      <c r="P273" s="1">
-        <v>-9</v>
+      <c r="P273" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q273" s="1" t="s">
         <v>70</v>
@@ -22895,8 +22895,8 @@
       <c r="O274" s="1">
         <v>25</v>
       </c>
-      <c r="P274" s="1">
-        <v>-9</v>
+      <c r="P274" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q274" s="1" t="s">
         <v>70</v>
@@ -22960,8 +22960,8 @@
       <c r="O275" s="1">
         <v>25</v>
       </c>
-      <c r="P275" s="1">
-        <v>-9</v>
+      <c r="P275" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q275" s="1" t="s">
         <v>70</v>
@@ -23025,8 +23025,8 @@
       <c r="O276" s="1">
         <v>25</v>
       </c>
-      <c r="P276" s="1">
-        <v>-9</v>
+      <c r="P276" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q276" s="1" t="s">
         <v>70</v>
@@ -23090,8 +23090,8 @@
       <c r="O277" s="1">
         <v>25</v>
       </c>
-      <c r="P277" s="1">
-        <v>-9</v>
+      <c r="P277" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q277" s="1" t="s">
         <v>70</v>
@@ -23155,8 +23155,8 @@
       <c r="O278" s="1">
         <v>25</v>
       </c>
-      <c r="P278" s="1">
-        <v>-9</v>
+      <c r="P278" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q278" s="1" t="s">
         <v>70</v>
@@ -23220,8 +23220,8 @@
       <c r="O279" s="1">
         <v>25</v>
       </c>
-      <c r="P279" s="1">
-        <v>-9</v>
+      <c r="P279" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q279" s="1" t="s">
         <v>70</v>
@@ -23285,8 +23285,8 @@
       <c r="O280" s="1">
         <v>25</v>
       </c>
-      <c r="P280" s="1">
-        <v>-9</v>
+      <c r="P280" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q280" s="1" t="s">
         <v>70</v>
@@ -23350,8 +23350,8 @@
       <c r="O281" s="1">
         <v>25</v>
       </c>
-      <c r="P281" s="1">
-        <v>-9</v>
+      <c r="P281" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q281" s="1" t="s">
         <v>70</v>
@@ -23415,8 +23415,8 @@
       <c r="O282" s="1">
         <v>25</v>
       </c>
-      <c r="P282" s="1">
-        <v>-9</v>
+      <c r="P282" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q282" s="1" t="s">
         <v>70</v>
@@ -23480,8 +23480,8 @@
       <c r="O283" s="1">
         <v>25</v>
       </c>
-      <c r="P283" s="1">
-        <v>-9</v>
+      <c r="P283" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q283" s="1" t="s">
         <v>70</v>
@@ -23545,8 +23545,8 @@
       <c r="O284" s="1">
         <v>25</v>
       </c>
-      <c r="P284" s="1">
-        <v>-9</v>
+      <c r="P284" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q284" s="1" t="s">
         <v>70</v>
@@ -23610,8 +23610,8 @@
       <c r="O285" s="1">
         <v>25</v>
       </c>
-      <c r="P285" s="1">
-        <v>-9</v>
+      <c r="P285" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q285" s="1" t="s">
         <v>70</v>
@@ -23675,8 +23675,8 @@
       <c r="O286" s="1">
         <v>25</v>
       </c>
-      <c r="P286" s="1">
-        <v>-9</v>
+      <c r="P286" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q286" s="1" t="s">
         <v>70</v>
@@ -23740,8 +23740,8 @@
       <c r="O287" s="1">
         <v>25</v>
       </c>
-      <c r="P287" s="1">
-        <v>-9</v>
+      <c r="P287" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q287" s="1" t="s">
         <v>70</v>
@@ -23805,8 +23805,8 @@
       <c r="O288" s="1">
         <v>25</v>
       </c>
-      <c r="P288" s="1">
-        <v>-9</v>
+      <c r="P288" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q288" s="1" t="s">
         <v>70</v>
@@ -23870,8 +23870,8 @@
       <c r="O289" s="1">
         <v>25</v>
       </c>
-      <c r="P289" s="1">
-        <v>-9</v>
+      <c r="P289" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q289" s="1" t="s">
         <v>70</v>
@@ -23935,8 +23935,8 @@
       <c r="O290" s="1">
         <v>25</v>
       </c>
-      <c r="P290" s="1">
-        <v>-9</v>
+      <c r="P290" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q290" s="1" t="s">
         <v>70</v>
@@ -24000,8 +24000,8 @@
       <c r="O291" s="1">
         <v>25</v>
       </c>
-      <c r="P291" s="1">
-        <v>-9</v>
+      <c r="P291" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q291" s="1" t="s">
         <v>70</v>
@@ -24065,8 +24065,8 @@
       <c r="O292" s="1">
         <v>25</v>
       </c>
-      <c r="P292" s="1">
-        <v>-9</v>
+      <c r="P292" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q292" s="1" t="s">
         <v>70</v>
@@ -24130,8 +24130,8 @@
       <c r="O293" s="1">
         <v>25</v>
       </c>
-      <c r="P293" s="1">
-        <v>-9</v>
+      <c r="P293" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q293" s="1" t="s">
         <v>70</v>
@@ -24195,8 +24195,8 @@
       <c r="O294" s="1">
         <v>25</v>
       </c>
-      <c r="P294" s="1">
-        <v>-9</v>
+      <c r="P294" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q294" s="1" t="s">
         <v>70</v>
@@ -24260,8 +24260,8 @@
       <c r="O295" s="1">
         <v>25</v>
       </c>
-      <c r="P295" s="1">
-        <v>-9</v>
+      <c r="P295" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q295" s="1" t="s">
         <v>70</v>
@@ -24325,8 +24325,8 @@
       <c r="O296" s="1">
         <v>25</v>
       </c>
-      <c r="P296" s="1">
-        <v>-9</v>
+      <c r="P296" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q296" s="1" t="s">
         <v>70</v>
@@ -24390,8 +24390,8 @@
       <c r="O297" s="1">
         <v>25</v>
       </c>
-      <c r="P297" s="1">
-        <v>-9</v>
+      <c r="P297" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q297" s="1" t="s">
         <v>70</v>
@@ -24455,8 +24455,8 @@
       <c r="O298" s="1">
         <v>25</v>
       </c>
-      <c r="P298" s="1">
-        <v>-9</v>
+      <c r="P298" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q298" s="1" t="s">
         <v>70</v>
@@ -24520,8 +24520,8 @@
       <c r="O299" s="1">
         <v>25</v>
       </c>
-      <c r="P299" s="1">
-        <v>-9</v>
+      <c r="P299" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q299" s="1" t="s">
         <v>70</v>
@@ -24585,8 +24585,8 @@
       <c r="O300" s="1">
         <v>25</v>
       </c>
-      <c r="P300" s="1">
-        <v>-9</v>
+      <c r="P300" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q300" s="1" t="s">
         <v>70</v>
@@ -24650,8 +24650,8 @@
       <c r="O301" s="1">
         <v>25</v>
       </c>
-      <c r="P301" s="1">
-        <v>-9</v>
+      <c r="P301" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q301" s="1" t="s">
         <v>70</v>
@@ -24715,8 +24715,8 @@
       <c r="O302" s="1">
         <v>25</v>
       </c>
-      <c r="P302" s="1">
-        <v>-9</v>
+      <c r="P302" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q302" s="1" t="s">
         <v>70</v>
@@ -24780,8 +24780,8 @@
       <c r="O303" s="1">
         <v>25</v>
       </c>
-      <c r="P303" s="1">
-        <v>-9</v>
+      <c r="P303" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q303" s="1" t="s">
         <v>70</v>
@@ -24845,8 +24845,8 @@
       <c r="O304" s="1">
         <v>25</v>
       </c>
-      <c r="P304" s="1">
-        <v>-9</v>
+      <c r="P304" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q304" s="1" t="s">
         <v>70</v>
@@ -24910,8 +24910,8 @@
       <c r="O305" s="1">
         <v>25</v>
       </c>
-      <c r="P305" s="1">
-        <v>-9</v>
+      <c r="P305" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q305" s="1" t="s">
         <v>70</v>
@@ -24975,8 +24975,8 @@
       <c r="O306" s="1">
         <v>25</v>
       </c>
-      <c r="P306" s="1">
-        <v>-9</v>
+      <c r="P306" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q306" s="1" t="s">
         <v>70</v>
@@ -25040,8 +25040,8 @@
       <c r="O307" s="1">
         <v>25</v>
       </c>
-      <c r="P307" s="1">
-        <v>-9</v>
+      <c r="P307" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q307" s="1" t="s">
         <v>70</v>
@@ -25105,8 +25105,8 @@
       <c r="O308" s="1">
         <v>25</v>
       </c>
-      <c r="P308" s="1">
-        <v>-9</v>
+      <c r="P308" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q308" s="1" t="s">
         <v>70</v>
@@ -25170,8 +25170,8 @@
       <c r="O309" s="1">
         <v>25</v>
       </c>
-      <c r="P309" s="1">
-        <v>-9</v>
+      <c r="P309" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q309" s="1" t="s">
         <v>70</v>
@@ -25235,8 +25235,8 @@
       <c r="O310" s="1">
         <v>25</v>
       </c>
-      <c r="P310" s="1">
-        <v>-9</v>
+      <c r="P310" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q310" s="1" t="s">
         <v>70</v>
@@ -25300,8 +25300,8 @@
       <c r="O311" s="1">
         <v>25</v>
       </c>
-      <c r="P311" s="1">
-        <v>-9</v>
+      <c r="P311" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q311" s="1" t="s">
         <v>70</v>
@@ -25365,8 +25365,8 @@
       <c r="O312" s="1">
         <v>25</v>
       </c>
-      <c r="P312" s="1">
-        <v>-9</v>
+      <c r="P312" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q312" s="1" t="s">
         <v>70</v>
@@ -25430,8 +25430,8 @@
       <c r="O313" s="1">
         <v>25</v>
       </c>
-      <c r="P313" s="1">
-        <v>-9</v>
+      <c r="P313" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q313" s="1" t="s">
         <v>70</v>
@@ -25495,8 +25495,8 @@
       <c r="O314" s="1">
         <v>25</v>
       </c>
-      <c r="P314" s="1">
-        <v>-9</v>
+      <c r="P314" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q314" s="1" t="s">
         <v>70</v>
@@ -25560,8 +25560,8 @@
       <c r="O315" s="1">
         <v>25</v>
       </c>
-      <c r="P315" s="1">
-        <v>-9</v>
+      <c r="P315" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q315" s="1" t="s">
         <v>70</v>
@@ -25625,8 +25625,8 @@
       <c r="O316" s="1">
         <v>25</v>
       </c>
-      <c r="P316" s="1">
-        <v>-9</v>
+      <c r="P316" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q316" s="1" t="s">
         <v>70</v>
@@ -25690,8 +25690,8 @@
       <c r="O317" s="1">
         <v>25</v>
       </c>
-      <c r="P317" s="1">
-        <v>-9</v>
+      <c r="P317" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q317" s="1" t="s">
         <v>70</v>
@@ -25755,8 +25755,8 @@
       <c r="O318" s="1">
         <v>25</v>
       </c>
-      <c r="P318" s="1">
-        <v>-9</v>
+      <c r="P318" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q318" s="1" t="s">
         <v>70</v>
@@ -25820,8 +25820,8 @@
       <c r="O319" s="1">
         <v>25</v>
       </c>
-      <c r="P319" s="1">
-        <v>-9</v>
+      <c r="P319" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q319" s="1" t="s">
         <v>70</v>
@@ -25885,8 +25885,8 @@
       <c r="O320" s="1">
         <v>25</v>
       </c>
-      <c r="P320" s="1">
-        <v>-9</v>
+      <c r="P320" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q320" s="1" t="s">
         <v>70</v>
@@ -25950,8 +25950,8 @@
       <c r="O321" s="1">
         <v>25</v>
       </c>
-      <c r="P321" s="1">
-        <v>-9</v>
+      <c r="P321" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q321" s="1" t="s">
         <v>70</v>
@@ -26015,8 +26015,8 @@
       <c r="O322" s="1">
         <v>25</v>
       </c>
-      <c r="P322" s="1">
-        <v>-9</v>
+      <c r="P322" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q322" s="1" t="s">
         <v>70</v>
@@ -26080,8 +26080,8 @@
       <c r="O323" s="1">
         <v>25</v>
       </c>
-      <c r="P323" s="1">
-        <v>-9</v>
+      <c r="P323" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q323" s="1" t="s">
         <v>70</v>
@@ -26145,8 +26145,8 @@
       <c r="O324" s="1">
         <v>25</v>
       </c>
-      <c r="P324" s="1">
-        <v>-9</v>
+      <c r="P324" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q324" s="1" t="s">
         <v>70</v>
@@ -26210,8 +26210,8 @@
       <c r="O325" s="1">
         <v>25</v>
       </c>
-      <c r="P325" s="1">
-        <v>-9</v>
+      <c r="P325" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q325" s="1" t="s">
         <v>70</v>
@@ -26275,8 +26275,8 @@
       <c r="O326" s="1">
         <v>25</v>
       </c>
-      <c r="P326" s="1">
-        <v>-9</v>
+      <c r="P326" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q326" s="1" t="s">
         <v>70</v>
@@ -26340,8 +26340,8 @@
       <c r="O327" s="1">
         <v>25</v>
       </c>
-      <c r="P327" s="1">
-        <v>-9</v>
+      <c r="P327" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q327" s="1" t="s">
         <v>70</v>
@@ -26405,8 +26405,8 @@
       <c r="O328" s="1">
         <v>25</v>
       </c>
-      <c r="P328" s="1">
-        <v>-9</v>
+      <c r="P328" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q328" s="1" t="s">
         <v>70</v>
@@ -26470,8 +26470,8 @@
       <c r="O329" s="1">
         <v>25</v>
       </c>
-      <c r="P329" s="1">
-        <v>-9</v>
+      <c r="P329" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q329" s="1" t="s">
         <v>70</v>
@@ -26535,8 +26535,8 @@
       <c r="O330" s="1">
         <v>25</v>
       </c>
-      <c r="P330" s="1">
-        <v>-9</v>
+      <c r="P330" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q330" s="1" t="s">
         <v>70</v>
@@ -26600,8 +26600,8 @@
       <c r="O331" s="1">
         <v>25</v>
       </c>
-      <c r="P331" s="1">
-        <v>-9</v>
+      <c r="P331" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q331" s="1" t="s">
         <v>70</v>
@@ -26665,8 +26665,8 @@
       <c r="O332" s="1">
         <v>25</v>
       </c>
-      <c r="P332" s="1">
-        <v>-9</v>
+      <c r="P332" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q332" s="1" t="s">
         <v>70</v>
@@ -26730,8 +26730,8 @@
       <c r="O333" s="1">
         <v>25</v>
       </c>
-      <c r="P333" s="1">
-        <v>-9</v>
+      <c r="P333" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q333" s="1" t="s">
         <v>70</v>
@@ -26795,8 +26795,8 @@
       <c r="O334" s="1">
         <v>25</v>
       </c>
-      <c r="P334" s="1">
-        <v>-9</v>
+      <c r="P334" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q334" s="1" t="s">
         <v>70</v>
@@ -26860,8 +26860,8 @@
       <c r="O335" s="1">
         <v>25</v>
       </c>
-      <c r="P335" s="1">
-        <v>-9</v>
+      <c r="P335" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q335" s="1" t="s">
         <v>70</v>
@@ -26925,8 +26925,8 @@
       <c r="O336" s="1">
         <v>25</v>
       </c>
-      <c r="P336" s="1">
-        <v>-9</v>
+      <c r="P336" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q336" s="1" t="s">
         <v>70</v>
@@ -26990,8 +26990,8 @@
       <c r="O337" s="1">
         <v>25</v>
       </c>
-      <c r="P337" s="1">
-        <v>-9</v>
+      <c r="P337" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q337" s="1" t="s">
         <v>70</v>
@@ -27055,8 +27055,8 @@
       <c r="O338" s="1">
         <v>25</v>
       </c>
-      <c r="P338" s="1">
-        <v>-9</v>
+      <c r="P338" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q338" s="1" t="s">
         <v>70</v>
@@ -27120,8 +27120,8 @@
       <c r="O339" s="1">
         <v>25</v>
       </c>
-      <c r="P339" s="1">
-        <v>-9</v>
+      <c r="P339" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q339" s="1" t="s">
         <v>70</v>
@@ -27185,8 +27185,8 @@
       <c r="O340" s="1">
         <v>25</v>
       </c>
-      <c r="P340" s="1">
-        <v>-9</v>
+      <c r="P340" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q340" s="1" t="s">
         <v>70</v>
@@ -27250,8 +27250,8 @@
       <c r="O341" s="1">
         <v>25</v>
       </c>
-      <c r="P341" s="1">
-        <v>-9</v>
+      <c r="P341" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q341" s="1" t="s">
         <v>70</v>
@@ -27315,8 +27315,8 @@
       <c r="O342" s="1">
         <v>25</v>
       </c>
-      <c r="P342" s="1">
-        <v>-9</v>
+      <c r="P342" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q342" s="1" t="s">
         <v>70</v>
@@ -27380,8 +27380,8 @@
       <c r="O343" s="1">
         <v>25</v>
       </c>
-      <c r="P343" s="1">
-        <v>-9</v>
+      <c r="P343" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q343" s="1" t="s">
         <v>70</v>
@@ -27445,8 +27445,8 @@
       <c r="O344" s="1">
         <v>25</v>
       </c>
-      <c r="P344" s="1">
-        <v>-9</v>
+      <c r="P344" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q344" s="1" t="s">
         <v>70</v>
@@ -27510,8 +27510,8 @@
       <c r="O345" s="1">
         <v>25</v>
       </c>
-      <c r="P345" s="1">
-        <v>-9</v>
+      <c r="P345" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q345" s="1" t="s">
         <v>70</v>
@@ -27575,8 +27575,8 @@
       <c r="O346" s="1">
         <v>25</v>
       </c>
-      <c r="P346" s="1">
-        <v>-9</v>
+      <c r="P346" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q346" s="1" t="s">
         <v>70</v>
@@ -27640,8 +27640,8 @@
       <c r="O347" s="1">
         <v>25</v>
       </c>
-      <c r="P347" s="1">
-        <v>-9</v>
+      <c r="P347" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q347" s="1" t="s">
         <v>70</v>
@@ -27705,8 +27705,8 @@
       <c r="O348" s="1">
         <v>25</v>
       </c>
-      <c r="P348" s="1">
-        <v>-9</v>
+      <c r="P348" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q348" s="1" t="s">
         <v>70</v>
@@ -27770,8 +27770,8 @@
       <c r="O349" s="1">
         <v>25</v>
       </c>
-      <c r="P349" s="1">
-        <v>-9</v>
+      <c r="P349" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q349" s="1" t="s">
         <v>70</v>
@@ -27835,8 +27835,8 @@
       <c r="O350" s="1">
         <v>25</v>
       </c>
-      <c r="P350" s="1">
-        <v>-9</v>
+      <c r="P350" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q350" s="1" t="s">
         <v>70</v>
@@ -40315,8 +40315,8 @@
       <c r="O542" s="1">
         <v>37</v>
       </c>
-      <c r="P542" s="1">
-        <v>-9</v>
+      <c r="P542" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q542" s="1" t="s">
         <v>90</v>
@@ -40380,8 +40380,8 @@
       <c r="O543" s="1">
         <v>37</v>
       </c>
-      <c r="P543" s="1">
-        <v>-9</v>
+      <c r="P543" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q543" s="1" t="s">
         <v>90</v>
@@ -40445,8 +40445,8 @@
       <c r="O544" s="1">
         <v>37</v>
       </c>
-      <c r="P544" s="1">
-        <v>-9</v>
+      <c r="P544" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q544" s="1" t="s">
         <v>90</v>
@@ -40510,8 +40510,8 @@
       <c r="O545" s="1">
         <v>37</v>
       </c>
-      <c r="P545" s="1">
-        <v>-9</v>
+      <c r="P545" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q545" s="1" t="s">
         <v>90</v>
@@ -40575,8 +40575,8 @@
       <c r="O546" s="1">
         <v>37</v>
       </c>
-      <c r="P546" s="1">
-        <v>-9</v>
+      <c r="P546" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q546" s="1" t="s">
         <v>90</v>
@@ -40640,8 +40640,8 @@
       <c r="O547" s="1">
         <v>37</v>
       </c>
-      <c r="P547" s="1">
-        <v>-9</v>
+      <c r="P547" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q547" s="1" t="s">
         <v>90</v>
@@ -40705,8 +40705,8 @@
       <c r="O548" s="1">
         <v>37</v>
       </c>
-      <c r="P548" s="1">
-        <v>-9</v>
+      <c r="P548" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q548" s="1" t="s">
         <v>90</v>
@@ -40770,8 +40770,8 @@
       <c r="O549" s="1">
         <v>37</v>
       </c>
-      <c r="P549" s="1">
-        <v>-9</v>
+      <c r="P549" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q549" s="1" t="s">
         <v>90</v>
@@ -40835,8 +40835,8 @@
       <c r="O550" s="1">
         <v>37</v>
       </c>
-      <c r="P550" s="1">
-        <v>-9</v>
+      <c r="P550" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q550" s="1" t="s">
         <v>90</v>
@@ -40900,8 +40900,8 @@
       <c r="O551" s="1">
         <v>37</v>
       </c>
-      <c r="P551" s="1">
-        <v>-9</v>
+      <c r="P551" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q551" s="1" t="s">
         <v>90</v>
@@ -40965,8 +40965,8 @@
       <c r="O552" s="1">
         <v>37</v>
       </c>
-      <c r="P552" s="1">
-        <v>-9</v>
+      <c r="P552" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q552" s="1" t="s">
         <v>90</v>
@@ -41030,8 +41030,8 @@
       <c r="O553" s="1">
         <v>37</v>
       </c>
-      <c r="P553" s="1">
-        <v>-9</v>
+      <c r="P553" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q553" s="1" t="s">
         <v>90</v>
@@ -41095,8 +41095,8 @@
       <c r="O554" s="1">
         <v>37</v>
       </c>
-      <c r="P554" s="1">
-        <v>-9</v>
+      <c r="P554" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q554" s="1" t="s">
         <v>90</v>
@@ -41160,8 +41160,8 @@
       <c r="O555" s="1">
         <v>37</v>
       </c>
-      <c r="P555" s="1">
-        <v>-9</v>
+      <c r="P555" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q555" s="1" t="s">
         <v>90</v>
@@ -41225,8 +41225,8 @@
       <c r="O556" s="1">
         <v>37</v>
       </c>
-      <c r="P556" s="1">
-        <v>-9</v>
+      <c r="P556" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q556" s="1" t="s">
         <v>90</v>
@@ -41290,8 +41290,8 @@
       <c r="O557" s="1">
         <v>37</v>
       </c>
-      <c r="P557" s="1">
-        <v>-9</v>
+      <c r="P557" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q557" s="1" t="s">
         <v>90</v>
@@ -41355,8 +41355,8 @@
       <c r="O558" s="1">
         <v>37</v>
       </c>
-      <c r="P558" s="1">
-        <v>-9</v>
+      <c r="P558" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q558" s="1" t="s">
         <v>90</v>
@@ -41420,8 +41420,8 @@
       <c r="O559" s="1">
         <v>37</v>
       </c>
-      <c r="P559" s="1">
-        <v>-9</v>
+      <c r="P559" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q559" s="1" t="s">
         <v>90</v>
@@ -41485,8 +41485,8 @@
       <c r="O560" s="1">
         <v>37</v>
       </c>
-      <c r="P560" s="1">
-        <v>-9</v>
+      <c r="P560" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q560" s="1" t="s">
         <v>90</v>
@@ -41550,8 +41550,8 @@
       <c r="O561" s="1">
         <v>37</v>
       </c>
-      <c r="P561" s="1">
-        <v>-9</v>
+      <c r="P561" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q561" s="1" t="s">
         <v>90</v>
@@ -41615,8 +41615,8 @@
       <c r="O562" s="1">
         <v>37</v>
       </c>
-      <c r="P562" s="1">
-        <v>-9</v>
+      <c r="P562" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q562" s="1" t="s">
         <v>90</v>
@@ -41680,8 +41680,8 @@
       <c r="O563" s="1">
         <v>37</v>
       </c>
-      <c r="P563" s="1">
-        <v>-9</v>
+      <c r="P563" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q563" s="1" t="s">
         <v>90</v>
@@ -41745,8 +41745,8 @@
       <c r="O564" s="1">
         <v>37</v>
       </c>
-      <c r="P564" s="1">
-        <v>-9</v>
+      <c r="P564" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q564" s="1" t="s">
         <v>90</v>
@@ -41810,8 +41810,8 @@
       <c r="O565" s="1">
         <v>37</v>
       </c>
-      <c r="P565" s="1">
-        <v>-9</v>
+      <c r="P565" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q565" s="1" t="s">
         <v>90</v>
@@ -41875,8 +41875,8 @@
       <c r="O566" s="1">
         <v>37</v>
       </c>
-      <c r="P566" s="1">
-        <v>-9</v>
+      <c r="P566" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q566" s="1" t="s">
         <v>90</v>
@@ -41940,8 +41940,8 @@
       <c r="O567" s="1">
         <v>37</v>
       </c>
-      <c r="P567" s="1">
-        <v>-9</v>
+      <c r="P567" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q567" s="1" t="s">
         <v>90</v>
@@ -42005,8 +42005,8 @@
       <c r="O568" s="1">
         <v>37</v>
       </c>
-      <c r="P568" s="1">
-        <v>-9</v>
+      <c r="P568" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q568" s="1" t="s">
         <v>90</v>
@@ -42070,8 +42070,8 @@
       <c r="O569" s="1">
         <v>37</v>
       </c>
-      <c r="P569" s="1">
-        <v>-9</v>
+      <c r="P569" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q569" s="1" t="s">
         <v>90</v>
@@ -42135,8 +42135,8 @@
       <c r="O570" s="1">
         <v>37</v>
       </c>
-      <c r="P570" s="1">
-        <v>-9</v>
+      <c r="P570" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q570" s="1" t="s">
         <v>90</v>
@@ -42200,8 +42200,8 @@
       <c r="O571" s="1">
         <v>37</v>
       </c>
-      <c r="P571" s="1">
-        <v>-9</v>
+      <c r="P571" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q571" s="1" t="s">
         <v>90</v>
@@ -42265,8 +42265,8 @@
       <c r="O572" s="1">
         <v>37</v>
       </c>
-      <c r="P572" s="1">
-        <v>-9</v>
+      <c r="P572" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q572" s="1" t="s">
         <v>90</v>
@@ -42330,8 +42330,8 @@
       <c r="O573" s="1">
         <v>37</v>
       </c>
-      <c r="P573" s="1">
-        <v>-9</v>
+      <c r="P573" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q573" s="1" t="s">
         <v>90</v>
@@ -42395,8 +42395,8 @@
       <c r="O574" s="1">
         <v>37</v>
       </c>
-      <c r="P574" s="1">
-        <v>-9</v>
+      <c r="P574" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q574" s="1" t="s">
         <v>90</v>
@@ -42460,8 +42460,8 @@
       <c r="O575" s="1">
         <v>37</v>
       </c>
-      <c r="P575" s="1">
-        <v>-9</v>
+      <c r="P575" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q575" s="1" t="s">
         <v>90</v>
@@ -42525,8 +42525,8 @@
       <c r="O576" s="1">
         <v>37</v>
       </c>
-      <c r="P576" s="1">
-        <v>-9</v>
+      <c r="P576" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q576" s="1" t="s">
         <v>90</v>
@@ -42590,8 +42590,8 @@
       <c r="O577" s="1">
         <v>37</v>
       </c>
-      <c r="P577" s="1">
-        <v>-9</v>
+      <c r="P577" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q577" s="1" t="s">
         <v>90</v>
@@ -42655,8 +42655,8 @@
       <c r="O578" s="1">
         <v>37</v>
       </c>
-      <c r="P578" s="1">
-        <v>-9</v>
+      <c r="P578" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q578" s="1" t="s">
         <v>90</v>
@@ -42720,8 +42720,8 @@
       <c r="O579" s="1">
         <v>37</v>
       </c>
-      <c r="P579" s="1">
-        <v>-9</v>
+      <c r="P579" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q579" s="1" t="s">
         <v>90</v>
@@ -42785,8 +42785,8 @@
       <c r="O580" s="1">
         <v>37</v>
       </c>
-      <c r="P580" s="1">
-        <v>-9</v>
+      <c r="P580" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q580" s="1" t="s">
         <v>90</v>
@@ -42850,8 +42850,8 @@
       <c r="O581" s="1">
         <v>37</v>
       </c>
-      <c r="P581" s="1">
-        <v>-9</v>
+      <c r="P581" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q581" s="1" t="s">
         <v>90</v>
@@ -42915,8 +42915,8 @@
       <c r="O582" s="1">
         <v>37</v>
       </c>
-      <c r="P582" s="1">
-        <v>-9</v>
+      <c r="P582" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q582" s="1" t="s">
         <v>90</v>
@@ -42980,8 +42980,8 @@
       <c r="O583" s="1">
         <v>37</v>
       </c>
-      <c r="P583" s="1">
-        <v>-9</v>
+      <c r="P583" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q583" s="1" t="s">
         <v>90</v>
@@ -43045,8 +43045,8 @@
       <c r="O584" s="1">
         <v>37</v>
       </c>
-      <c r="P584" s="1">
-        <v>-9</v>
+      <c r="P584" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q584" s="1" t="s">
         <v>90</v>
@@ -43110,8 +43110,8 @@
       <c r="O585" s="1">
         <v>37</v>
       </c>
-      <c r="P585" s="1">
-        <v>-9</v>
+      <c r="P585" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q585" s="1" t="s">
         <v>90</v>

--- a/data/metabolism_data.xlsx
+++ b/data/metabolism_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13041" uniqueCount="1520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12903" uniqueCount="1520">
   <si>
     <t>original_unit</t>
   </si>
@@ -4962,9 +4962,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X753"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S160" sqref="S160"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O175" sqref="O175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10561,8 +10561,8 @@
       <c r="L86" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M86" s="1" t="s">
-        <v>455</v>
+      <c r="M86" s="1">
+        <v>6000</v>
       </c>
       <c r="N86" s="1">
         <v>10</v>
@@ -10626,8 +10626,8 @@
       <c r="L87" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M87" s="1" t="s">
-        <v>455</v>
+      <c r="M87" s="1">
+        <v>6000</v>
       </c>
       <c r="N87" s="1">
         <v>10</v>
@@ -10691,8 +10691,8 @@
       <c r="L88" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M88" s="1" t="s">
-        <v>455</v>
+      <c r="M88" s="1">
+        <v>6000</v>
       </c>
       <c r="N88" s="1">
         <v>10</v>
@@ -10756,8 +10756,8 @@
       <c r="L89" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M89" s="1" t="s">
-        <v>455</v>
+      <c r="M89" s="1">
+        <v>6000</v>
       </c>
       <c r="N89" s="1">
         <v>10</v>
@@ -10821,8 +10821,8 @@
       <c r="L90" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M90" s="1" t="s">
-        <v>455</v>
+      <c r="M90" s="1">
+        <v>6000</v>
       </c>
       <c r="N90" s="1">
         <v>10</v>
@@ -10886,8 +10886,8 @@
       <c r="L91" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M91" s="1" t="s">
-        <v>455</v>
+      <c r="M91" s="1">
+        <v>6000</v>
       </c>
       <c r="N91" s="1">
         <v>10</v>
@@ -10951,8 +10951,8 @@
       <c r="L92" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M92" s="1" t="s">
-        <v>455</v>
+      <c r="M92" s="1">
+        <v>6000</v>
       </c>
       <c r="N92" s="1">
         <v>10</v>
@@ -11016,8 +11016,8 @@
       <c r="L93" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M93" s="1" t="s">
-        <v>455</v>
+      <c r="M93" s="1">
+        <v>6000</v>
       </c>
       <c r="N93" s="1">
         <v>10</v>
@@ -11081,8 +11081,8 @@
       <c r="L94" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M94" s="1" t="s">
-        <v>455</v>
+      <c r="M94" s="1">
+        <v>6000</v>
       </c>
       <c r="N94" s="1">
         <v>10</v>
@@ -11146,8 +11146,8 @@
       <c r="L95" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M95" s="1" t="s">
-        <v>455</v>
+      <c r="M95" s="1">
+        <v>6000</v>
       </c>
       <c r="N95" s="1">
         <v>10</v>
@@ -11211,8 +11211,8 @@
       <c r="L96" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M96" s="1" t="s">
-        <v>455</v>
+      <c r="M96" s="1">
+        <v>6000</v>
       </c>
       <c r="N96" s="1">
         <v>10</v>
@@ -11276,8 +11276,8 @@
       <c r="L97" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M97" s="1" t="s">
-        <v>455</v>
+      <c r="M97" s="1">
+        <v>6000</v>
       </c>
       <c r="N97" s="1">
         <v>10</v>
@@ -11341,8 +11341,8 @@
       <c r="L98" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M98" s="1" t="s">
-        <v>455</v>
+      <c r="M98" s="1">
+        <v>6000</v>
       </c>
       <c r="N98" s="1">
         <v>10</v>
@@ -11406,8 +11406,8 @@
       <c r="L99" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M99" s="1" t="s">
-        <v>455</v>
+      <c r="M99" s="1">
+        <v>6000</v>
       </c>
       <c r="N99" s="1">
         <v>10</v>
@@ -11471,8 +11471,8 @@
       <c r="L100" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M100" s="1" t="s">
-        <v>455</v>
+      <c r="M100" s="1">
+        <v>6000</v>
       </c>
       <c r="N100" s="1">
         <v>10</v>
@@ -11536,8 +11536,8 @@
       <c r="L101" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M101" s="1" t="s">
-        <v>455</v>
+      <c r="M101" s="1">
+        <v>6000</v>
       </c>
       <c r="N101" s="1">
         <v>10</v>
@@ -11601,8 +11601,8 @@
       <c r="L102" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M102" s="1" t="s">
-        <v>455</v>
+      <c r="M102" s="1">
+        <v>6000</v>
       </c>
       <c r="N102" s="1">
         <v>10</v>
@@ -11666,8 +11666,8 @@
       <c r="L103" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M103" s="1" t="s">
-        <v>455</v>
+      <c r="M103" s="1">
+        <v>6000</v>
       </c>
       <c r="N103" s="1">
         <v>10</v>
@@ -11731,8 +11731,8 @@
       <c r="L104" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M104" s="1" t="s">
-        <v>455</v>
+      <c r="M104" s="1">
+        <v>6000</v>
       </c>
       <c r="N104" s="1">
         <v>10</v>
@@ -11796,8 +11796,8 @@
       <c r="L105" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M105" s="1" t="s">
-        <v>455</v>
+      <c r="M105" s="1">
+        <v>6000</v>
       </c>
       <c r="N105" s="1">
         <v>10</v>
@@ -11861,8 +11861,8 @@
       <c r="L106" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M106" s="1" t="s">
-        <v>455</v>
+      <c r="M106" s="1">
+        <v>6000</v>
       </c>
       <c r="N106" s="1">
         <v>10</v>
@@ -11926,8 +11926,8 @@
       <c r="L107" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M107" s="1" t="s">
-        <v>455</v>
+      <c r="M107" s="1">
+        <v>6000</v>
       </c>
       <c r="N107" s="1">
         <v>10</v>
@@ -11991,8 +11991,8 @@
       <c r="L108" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M108" s="1" t="s">
-        <v>455</v>
+      <c r="M108" s="1">
+        <v>6000</v>
       </c>
       <c r="N108" s="1">
         <v>10</v>
@@ -12056,8 +12056,8 @@
       <c r="L109" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M109" s="1" t="s">
-        <v>455</v>
+      <c r="M109" s="1">
+        <v>6000</v>
       </c>
       <c r="N109" s="1">
         <v>10</v>
@@ -12121,8 +12121,8 @@
       <c r="L110" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M110" s="1" t="s">
-        <v>455</v>
+      <c r="M110" s="1">
+        <v>6000</v>
       </c>
       <c r="N110" s="1">
         <v>10</v>
@@ -12186,8 +12186,8 @@
       <c r="L111" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M111" s="1" t="s">
-        <v>455</v>
+      <c r="M111" s="1">
+        <v>6000</v>
       </c>
       <c r="N111" s="1">
         <v>10</v>
@@ -12251,8 +12251,8 @@
       <c r="L112" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M112" s="1" t="s">
-        <v>455</v>
+      <c r="M112" s="1">
+        <v>6000</v>
       </c>
       <c r="N112" s="1">
         <v>10</v>
@@ -12316,8 +12316,8 @@
       <c r="L113" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M113" s="1" t="s">
-        <v>455</v>
+      <c r="M113" s="1">
+        <v>6000</v>
       </c>
       <c r="N113" s="1">
         <v>10</v>
@@ -12381,8 +12381,8 @@
       <c r="L114" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M114" s="1" t="s">
-        <v>455</v>
+      <c r="M114" s="1">
+        <v>6000</v>
       </c>
       <c r="N114" s="1">
         <v>10</v>
@@ -12446,8 +12446,8 @@
       <c r="L115" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M115" s="1" t="s">
-        <v>455</v>
+      <c r="M115" s="1">
+        <v>6000</v>
       </c>
       <c r="N115" s="1">
         <v>10</v>
@@ -12511,8 +12511,8 @@
       <c r="L116" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M116" s="1" t="s">
-        <v>455</v>
+      <c r="M116" s="1">
+        <v>6000</v>
       </c>
       <c r="N116" s="1">
         <v>10</v>
@@ -12576,8 +12576,8 @@
       <c r="L117" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M117" s="1" t="s">
-        <v>455</v>
+      <c r="M117" s="1">
+        <v>6000</v>
       </c>
       <c r="N117" s="1">
         <v>10</v>
@@ -12641,8 +12641,8 @@
       <c r="L118" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M118" s="1" t="s">
-        <v>455</v>
+      <c r="M118" s="1">
+        <v>6000</v>
       </c>
       <c r="N118" s="1">
         <v>10</v>
@@ -12706,8 +12706,8 @@
       <c r="L119" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M119" s="1" t="s">
-        <v>455</v>
+      <c r="M119" s="1">
+        <v>6000</v>
       </c>
       <c r="N119" s="1">
         <v>10</v>
@@ -12771,8 +12771,8 @@
       <c r="L120" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M120" s="1" t="s">
-        <v>455</v>
+      <c r="M120" s="1">
+        <v>6000</v>
       </c>
       <c r="N120" s="1">
         <v>10</v>
@@ -12836,8 +12836,8 @@
       <c r="L121" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M121" s="1" t="s">
-        <v>455</v>
+      <c r="M121" s="1">
+        <v>6000</v>
       </c>
       <c r="N121" s="1">
         <v>10</v>
@@ -12901,8 +12901,8 @@
       <c r="L122" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M122" s="1" t="s">
-        <v>455</v>
+      <c r="M122" s="1">
+        <v>6000</v>
       </c>
       <c r="N122" s="1">
         <v>10</v>
@@ -12966,8 +12966,8 @@
       <c r="L123" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M123" s="1" t="s">
-        <v>455</v>
+      <c r="M123" s="1">
+        <v>6000</v>
       </c>
       <c r="N123" s="1">
         <v>10</v>
@@ -13031,8 +13031,8 @@
       <c r="L124" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M124" s="1" t="s">
-        <v>455</v>
+      <c r="M124" s="1">
+        <v>6000</v>
       </c>
       <c r="N124" s="1">
         <v>10</v>
@@ -13096,8 +13096,8 @@
       <c r="L125" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M125" s="1" t="s">
-        <v>455</v>
+      <c r="M125" s="1">
+        <v>6000</v>
       </c>
       <c r="N125" s="1">
         <v>10</v>
@@ -13161,8 +13161,8 @@
       <c r="L126" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M126" s="1" t="s">
-        <v>455</v>
+      <c r="M126" s="1">
+        <v>6000</v>
       </c>
       <c r="N126" s="1">
         <v>10</v>
@@ -13226,8 +13226,8 @@
       <c r="L127" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M127" s="1" t="s">
-        <v>455</v>
+      <c r="M127" s="1">
+        <v>6000</v>
       </c>
       <c r="N127" s="1">
         <v>10</v>
@@ -13291,8 +13291,8 @@
       <c r="L128" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M128" s="1" t="s">
-        <v>455</v>
+      <c r="M128" s="1">
+        <v>6000</v>
       </c>
       <c r="N128" s="1">
         <v>10</v>
@@ -13356,8 +13356,8 @@
       <c r="L129" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M129" s="1" t="s">
-        <v>455</v>
+      <c r="M129" s="1">
+        <v>6000</v>
       </c>
       <c r="N129" s="1">
         <v>10</v>
@@ -13421,8 +13421,8 @@
       <c r="L130" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M130" s="1" t="s">
-        <v>455</v>
+      <c r="M130" s="1">
+        <v>6000</v>
       </c>
       <c r="N130" s="1">
         <v>10</v>
@@ -13486,8 +13486,8 @@
       <c r="L131" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M131" s="1" t="s">
-        <v>455</v>
+      <c r="M131" s="1">
+        <v>6000</v>
       </c>
       <c r="N131" s="1">
         <v>10</v>
@@ -13551,8 +13551,8 @@
       <c r="L132" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M132" s="1" t="s">
-        <v>455</v>
+      <c r="M132" s="1">
+        <v>6000</v>
       </c>
       <c r="N132" s="1">
         <v>10</v>
@@ -13616,8 +13616,8 @@
       <c r="L133" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M133" s="1" t="s">
-        <v>455</v>
+      <c r="M133" s="1">
+        <v>6000</v>
       </c>
       <c r="N133" s="1">
         <v>10</v>
@@ -13681,8 +13681,8 @@
       <c r="L134" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M134" s="1" t="s">
-        <v>455</v>
+      <c r="M134" s="1">
+        <v>6000</v>
       </c>
       <c r="N134" s="1">
         <v>10</v>
@@ -13746,8 +13746,8 @@
       <c r="L135" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M135" s="1" t="s">
-        <v>455</v>
+      <c r="M135" s="1">
+        <v>6000</v>
       </c>
       <c r="N135" s="1">
         <v>10</v>
@@ -13811,8 +13811,8 @@
       <c r="L136" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M136" s="1" t="s">
-        <v>455</v>
+      <c r="M136" s="1">
+        <v>6000</v>
       </c>
       <c r="N136" s="1">
         <v>10</v>
@@ -13876,8 +13876,8 @@
       <c r="L137" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M137" s="1" t="s">
-        <v>455</v>
+      <c r="M137" s="1">
+        <v>6000</v>
       </c>
       <c r="N137" s="1">
         <v>10</v>
@@ -13941,8 +13941,8 @@
       <c r="L138" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M138" s="1" t="s">
-        <v>455</v>
+      <c r="M138" s="1">
+        <v>6000</v>
       </c>
       <c r="N138" s="1">
         <v>10</v>
@@ -14006,8 +14006,8 @@
       <c r="L139" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M139" s="1" t="s">
-        <v>455</v>
+      <c r="M139" s="1">
+        <v>6000</v>
       </c>
       <c r="N139" s="1">
         <v>10</v>
@@ -14071,8 +14071,8 @@
       <c r="L140" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M140" s="1" t="s">
-        <v>455</v>
+      <c r="M140" s="1">
+        <v>6000</v>
       </c>
       <c r="N140" s="1">
         <v>10</v>
@@ -14136,8 +14136,8 @@
       <c r="L141" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M141" s="1" t="s">
-        <v>455</v>
+      <c r="M141" s="1">
+        <v>6000</v>
       </c>
       <c r="N141" s="1">
         <v>10</v>
@@ -14201,8 +14201,8 @@
       <c r="L142" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M142" s="1" t="s">
-        <v>455</v>
+      <c r="M142" s="1">
+        <v>6000</v>
       </c>
       <c r="N142" s="1">
         <v>10</v>
@@ -14266,8 +14266,8 @@
       <c r="L143" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M143" s="1" t="s">
-        <v>455</v>
+      <c r="M143" s="1">
+        <v>6000</v>
       </c>
       <c r="N143" s="1">
         <v>10</v>
@@ -14331,8 +14331,8 @@
       <c r="L144" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M144" s="1" t="s">
-        <v>455</v>
+      <c r="M144" s="1">
+        <v>6000</v>
       </c>
       <c r="N144" s="1">
         <v>10</v>
@@ -14396,8 +14396,8 @@
       <c r="L145" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M145" s="1" t="s">
-        <v>455</v>
+      <c r="M145" s="1">
+        <v>6000</v>
       </c>
       <c r="N145" s="1">
         <v>10</v>
@@ -14461,8 +14461,8 @@
       <c r="L146" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M146" s="1" t="s">
-        <v>455</v>
+      <c r="M146" s="1">
+        <v>6000</v>
       </c>
       <c r="N146" s="1">
         <v>10</v>
@@ -14526,8 +14526,8 @@
       <c r="L147" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M147" s="1" t="s">
-        <v>455</v>
+      <c r="M147" s="1">
+        <v>6000</v>
       </c>
       <c r="N147" s="1">
         <v>10</v>
@@ -14591,8 +14591,8 @@
       <c r="L148" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M148" s="1" t="s">
-        <v>455</v>
+      <c r="M148" s="1">
+        <v>6000</v>
       </c>
       <c r="N148" s="1">
         <v>10</v>
@@ -14656,8 +14656,8 @@
       <c r="L149" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M149" s="1" t="s">
-        <v>455</v>
+      <c r="M149" s="1">
+        <v>6000</v>
       </c>
       <c r="N149" s="1">
         <v>10</v>
@@ -14721,8 +14721,8 @@
       <c r="L150" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M150" s="1" t="s">
-        <v>455</v>
+      <c r="M150" s="1">
+        <v>6000</v>
       </c>
       <c r="N150" s="1">
         <v>10</v>
@@ -14786,8 +14786,8 @@
       <c r="L151" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M151" s="1" t="s">
-        <v>455</v>
+      <c r="M151" s="1">
+        <v>6000</v>
       </c>
       <c r="N151" s="1">
         <v>10</v>
@@ -14851,8 +14851,8 @@
       <c r="L152" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M152" s="1" t="s">
-        <v>455</v>
+      <c r="M152" s="1">
+        <v>6000</v>
       </c>
       <c r="N152" s="1">
         <v>10</v>
@@ -14916,8 +14916,8 @@
       <c r="L153" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M153" s="1" t="s">
-        <v>455</v>
+      <c r="M153" s="1">
+        <v>6000</v>
       </c>
       <c r="N153" s="1">
         <v>10</v>
@@ -14981,8 +14981,8 @@
       <c r="L154" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M154" s="1" t="s">
-        <v>455</v>
+      <c r="M154" s="1">
+        <v>6000</v>
       </c>
       <c r="N154" s="1">
         <v>10</v>
@@ -15046,8 +15046,8 @@
       <c r="L155" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M155" s="1" t="s">
-        <v>455</v>
+      <c r="M155" s="1">
+        <v>6000</v>
       </c>
       <c r="N155" s="1">
         <v>10</v>
@@ -15111,8 +15111,8 @@
       <c r="L156" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M156" s="1" t="s">
-        <v>455</v>
+      <c r="M156" s="1">
+        <v>6000</v>
       </c>
       <c r="N156" s="1">
         <v>10</v>
@@ -15176,8 +15176,8 @@
       <c r="L157" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M157" s="1" t="s">
-        <v>455</v>
+      <c r="M157" s="1">
+        <v>6000</v>
       </c>
       <c r="N157" s="1">
         <v>10</v>
@@ -15241,8 +15241,8 @@
       <c r="L158" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M158" s="1" t="s">
-        <v>455</v>
+      <c r="M158" s="1">
+        <v>6000</v>
       </c>
       <c r="N158" s="1">
         <v>10</v>
@@ -15306,8 +15306,8 @@
       <c r="L159" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M159" s="1" t="s">
-        <v>455</v>
+      <c r="M159" s="1">
+        <v>6000</v>
       </c>
       <c r="N159" s="1">
         <v>10</v>
@@ -15371,8 +15371,8 @@
       <c r="L160" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M160" s="1" t="s">
-        <v>455</v>
+      <c r="M160" s="1">
+        <v>6000</v>
       </c>
       <c r="N160" s="1">
         <v>10</v>
@@ -15436,8 +15436,8 @@
       <c r="L161" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M161" s="1" t="s">
-        <v>455</v>
+      <c r="M161" s="1">
+        <v>6000</v>
       </c>
       <c r="N161" s="1">
         <v>10</v>
@@ -15501,8 +15501,8 @@
       <c r="L162" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M162" s="1" t="s">
-        <v>455</v>
+      <c r="M162" s="1">
+        <v>1800</v>
       </c>
       <c r="N162" s="1">
         <v>10</v>
@@ -15566,8 +15566,8 @@
       <c r="L163" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M163" s="1" t="s">
-        <v>455</v>
+      <c r="M163" s="1">
+        <v>1800</v>
       </c>
       <c r="N163" s="1">
         <v>10</v>
@@ -15631,8 +15631,8 @@
       <c r="L164" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M164" s="1" t="s">
-        <v>455</v>
+      <c r="M164" s="1">
+        <v>1800</v>
       </c>
       <c r="N164" s="1">
         <v>10</v>
@@ -15696,8 +15696,8 @@
       <c r="L165" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M165" s="1" t="s">
-        <v>455</v>
+      <c r="M165" s="1">
+        <v>1800</v>
       </c>
       <c r="N165" s="1">
         <v>10</v>
@@ -15761,8 +15761,8 @@
       <c r="L166" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M166" s="1" t="s">
-        <v>455</v>
+      <c r="M166" s="1">
+        <v>1800</v>
       </c>
       <c r="N166" s="1">
         <v>10</v>
@@ -15826,8 +15826,8 @@
       <c r="L167" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M167" s="1" t="s">
-        <v>455</v>
+      <c r="M167" s="1">
+        <v>1800</v>
       </c>
       <c r="N167" s="1">
         <v>10</v>
@@ -15891,8 +15891,8 @@
       <c r="L168" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M168" s="1" t="s">
-        <v>455</v>
+      <c r="M168" s="1">
+        <v>1800</v>
       </c>
       <c r="N168" s="1">
         <v>10</v>
@@ -15956,8 +15956,8 @@
       <c r="L169" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M169" s="1" t="s">
-        <v>455</v>
+      <c r="M169" s="1">
+        <v>1800</v>
       </c>
       <c r="N169" s="1">
         <v>10</v>
@@ -16021,8 +16021,8 @@
       <c r="L170" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M170" s="1" t="s">
-        <v>455</v>
+      <c r="M170" s="1">
+        <v>1800</v>
       </c>
       <c r="N170" s="1">
         <v>10</v>
@@ -16086,8 +16086,8 @@
       <c r="L171" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M171" s="1" t="s">
-        <v>455</v>
+      <c r="M171" s="1">
+        <v>1800</v>
       </c>
       <c r="N171" s="1">
         <v>10</v>
@@ -16151,8 +16151,8 @@
       <c r="L172" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M172" s="1" t="s">
-        <v>455</v>
+      <c r="M172" s="1">
+        <v>1800</v>
       </c>
       <c r="N172" s="1">
         <v>10</v>
@@ -16216,8 +16216,8 @@
       <c r="L173" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M173" s="1" t="s">
-        <v>455</v>
+      <c r="M173" s="1">
+        <v>1800</v>
       </c>
       <c r="N173" s="1">
         <v>10</v>
@@ -16281,8 +16281,8 @@
       <c r="L174" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M174" s="1" t="s">
-        <v>455</v>
+      <c r="M174" s="1">
+        <v>1800</v>
       </c>
       <c r="N174" s="1">
         <v>10</v>
@@ -16346,8 +16346,8 @@
       <c r="L175" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M175" s="1" t="s">
-        <v>455</v>
+      <c r="M175" s="1">
+        <v>1800</v>
       </c>
       <c r="N175" s="1">
         <v>10</v>
@@ -16411,8 +16411,8 @@
       <c r="L176" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M176" s="1" t="s">
-        <v>455</v>
+      <c r="M176" s="1">
+        <v>1800</v>
       </c>
       <c r="N176" s="1">
         <v>10</v>
@@ -16476,8 +16476,8 @@
       <c r="L177" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M177" s="1" t="s">
-        <v>455</v>
+      <c r="M177" s="1">
+        <v>1800</v>
       </c>
       <c r="N177" s="1">
         <v>10</v>
@@ -16541,8 +16541,8 @@
       <c r="L178" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M178" s="1" t="s">
-        <v>455</v>
+      <c r="M178" s="1">
+        <v>1800</v>
       </c>
       <c r="N178" s="1">
         <v>10</v>
@@ -16606,8 +16606,8 @@
       <c r="L179" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M179" s="1" t="s">
-        <v>455</v>
+      <c r="M179" s="1">
+        <v>1800</v>
       </c>
       <c r="N179" s="1">
         <v>10</v>
@@ -16671,8 +16671,8 @@
       <c r="L180" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M180" s="1" t="s">
-        <v>455</v>
+      <c r="M180" s="1">
+        <v>1800</v>
       </c>
       <c r="N180" s="1">
         <v>10</v>
@@ -16736,8 +16736,8 @@
       <c r="L181" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M181" s="1" t="s">
-        <v>455</v>
+      <c r="M181" s="1">
+        <v>1800</v>
       </c>
       <c r="N181" s="1">
         <v>10</v>
@@ -16801,8 +16801,8 @@
       <c r="L182" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M182" s="1" t="s">
-        <v>455</v>
+      <c r="M182" s="1">
+        <v>1800</v>
       </c>
       <c r="N182" s="1">
         <v>10</v>
@@ -16866,8 +16866,8 @@
       <c r="L183" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M183" s="1" t="s">
-        <v>455</v>
+      <c r="M183" s="1">
+        <v>1800</v>
       </c>
       <c r="N183" s="1">
         <v>10</v>
@@ -16931,8 +16931,8 @@
       <c r="L184" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M184" s="1" t="s">
-        <v>455</v>
+      <c r="M184" s="1">
+        <v>1800</v>
       </c>
       <c r="N184" s="1">
         <v>10</v>
@@ -16996,8 +16996,8 @@
       <c r="L185" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M185" s="1" t="s">
-        <v>455</v>
+      <c r="M185" s="1">
+        <v>1800</v>
       </c>
       <c r="N185" s="1">
         <v>10</v>
@@ -17061,8 +17061,8 @@
       <c r="L186" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M186" s="1" t="s">
-        <v>455</v>
+      <c r="M186" s="1">
+        <v>1800</v>
       </c>
       <c r="N186" s="1">
         <v>10</v>
@@ -17126,8 +17126,8 @@
       <c r="L187" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M187" s="1" t="s">
-        <v>455</v>
+      <c r="M187" s="1">
+        <v>1800</v>
       </c>
       <c r="N187" s="1">
         <v>10</v>
@@ -17191,8 +17191,8 @@
       <c r="L188" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M188" s="1" t="s">
-        <v>455</v>
+      <c r="M188" s="1">
+        <v>1800</v>
       </c>
       <c r="N188" s="1">
         <v>10</v>
@@ -17256,8 +17256,8 @@
       <c r="L189" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M189" s="1" t="s">
-        <v>455</v>
+      <c r="M189" s="1">
+        <v>1800</v>
       </c>
       <c r="N189" s="1">
         <v>10</v>
@@ -17321,8 +17321,8 @@
       <c r="L190" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M190" s="1" t="s">
-        <v>455</v>
+      <c r="M190" s="1">
+        <v>1800</v>
       </c>
       <c r="N190" s="1">
         <v>10</v>
@@ -17386,8 +17386,8 @@
       <c r="L191" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M191" s="1" t="s">
-        <v>455</v>
+      <c r="M191" s="1">
+        <v>1800</v>
       </c>
       <c r="N191" s="1">
         <v>10</v>
@@ -17451,8 +17451,8 @@
       <c r="L192" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M192" s="1" t="s">
-        <v>455</v>
+      <c r="M192" s="1">
+        <v>1800</v>
       </c>
       <c r="N192" s="1">
         <v>10</v>
@@ -17516,8 +17516,8 @@
       <c r="L193" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M193" s="1" t="s">
-        <v>455</v>
+      <c r="M193" s="1">
+        <v>1800</v>
       </c>
       <c r="N193" s="1">
         <v>10</v>
@@ -17581,8 +17581,8 @@
       <c r="L194" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M194" s="1" t="s">
-        <v>455</v>
+      <c r="M194" s="1">
+        <v>1800</v>
       </c>
       <c r="N194" s="1">
         <v>10</v>
@@ -17646,8 +17646,8 @@
       <c r="L195" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M195" s="1" t="s">
-        <v>455</v>
+      <c r="M195" s="1">
+        <v>1800</v>
       </c>
       <c r="N195" s="1">
         <v>10</v>
@@ -17711,8 +17711,8 @@
       <c r="L196" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M196" s="1" t="s">
-        <v>455</v>
+      <c r="M196" s="1">
+        <v>1800</v>
       </c>
       <c r="N196" s="1">
         <v>10</v>
@@ -17776,8 +17776,8 @@
       <c r="L197" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M197" s="1" t="s">
-        <v>455</v>
+      <c r="M197" s="1">
+        <v>1800</v>
       </c>
       <c r="N197" s="1">
         <v>10</v>
@@ -17841,8 +17841,8 @@
       <c r="L198" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M198" s="1" t="s">
-        <v>455</v>
+      <c r="M198" s="1">
+        <v>1800</v>
       </c>
       <c r="N198" s="1">
         <v>10</v>
@@ -17906,8 +17906,8 @@
       <c r="L199" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M199" s="1" t="s">
-        <v>455</v>
+      <c r="M199" s="1">
+        <v>1800</v>
       </c>
       <c r="N199" s="1">
         <v>10</v>
@@ -17971,8 +17971,8 @@
       <c r="L200" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M200" s="1" t="s">
-        <v>455</v>
+      <c r="M200" s="1">
+        <v>1800</v>
       </c>
       <c r="N200" s="1">
         <v>10</v>
@@ -18036,8 +18036,8 @@
       <c r="L201" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M201" s="1" t="s">
-        <v>455</v>
+      <c r="M201" s="1">
+        <v>1800</v>
       </c>
       <c r="N201" s="1">
         <v>10</v>
@@ -18101,8 +18101,8 @@
       <c r="L202" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M202" s="1" t="s">
-        <v>455</v>
+      <c r="M202" s="1">
+        <v>1800</v>
       </c>
       <c r="N202" s="1">
         <v>10</v>
@@ -18166,8 +18166,8 @@
       <c r="L203" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M203" s="1" t="s">
-        <v>455</v>
+      <c r="M203" s="1">
+        <v>1800</v>
       </c>
       <c r="N203" s="1">
         <v>10</v>
@@ -18231,8 +18231,8 @@
       <c r="L204" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M204" s="1" t="s">
-        <v>455</v>
+      <c r="M204" s="1">
+        <v>1800</v>
       </c>
       <c r="N204" s="1">
         <v>10</v>
@@ -18296,8 +18296,8 @@
       <c r="L205" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M205" s="1" t="s">
-        <v>455</v>
+      <c r="M205" s="1">
+        <v>1800</v>
       </c>
       <c r="N205" s="1">
         <v>10</v>
@@ -18361,8 +18361,8 @@
       <c r="L206" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M206" s="1" t="s">
-        <v>455</v>
+      <c r="M206" s="1">
+        <v>1800</v>
       </c>
       <c r="N206" s="1">
         <v>10</v>
@@ -18426,8 +18426,8 @@
       <c r="L207" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M207" s="1" t="s">
-        <v>455</v>
+      <c r="M207" s="1">
+        <v>1800</v>
       </c>
       <c r="N207" s="1">
         <v>10</v>
@@ -18491,8 +18491,8 @@
       <c r="L208" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M208" s="1" t="s">
-        <v>455</v>
+      <c r="M208" s="1">
+        <v>1800</v>
       </c>
       <c r="N208" s="1">
         <v>10</v>
@@ -18556,8 +18556,8 @@
       <c r="L209" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M209" s="1" t="s">
-        <v>455</v>
+      <c r="M209" s="1">
+        <v>1800</v>
       </c>
       <c r="N209" s="1">
         <v>10</v>
@@ -18621,8 +18621,8 @@
       <c r="L210" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M210" s="1" t="s">
-        <v>455</v>
+      <c r="M210" s="1">
+        <v>1800</v>
       </c>
       <c r="N210" s="1">
         <v>10</v>
@@ -18686,8 +18686,8 @@
       <c r="L211" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M211" s="1" t="s">
-        <v>455</v>
+      <c r="M211" s="1">
+        <v>1800</v>
       </c>
       <c r="N211" s="1">
         <v>10</v>
@@ -18751,8 +18751,8 @@
       <c r="L212" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M212" s="1" t="s">
-        <v>455</v>
+      <c r="M212" s="1">
+        <v>1800</v>
       </c>
       <c r="N212" s="1">
         <v>10</v>
@@ -18816,8 +18816,8 @@
       <c r="L213" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M213" s="1" t="s">
-        <v>455</v>
+      <c r="M213" s="1">
+        <v>1800</v>
       </c>
       <c r="N213" s="1">
         <v>10</v>
@@ -18881,8 +18881,8 @@
       <c r="L214" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M214" s="1" t="s">
-        <v>455</v>
+      <c r="M214" s="1">
+        <v>1800</v>
       </c>
       <c r="N214" s="1">
         <v>10</v>
@@ -18946,8 +18946,8 @@
       <c r="L215" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M215" s="1" t="s">
-        <v>455</v>
+      <c r="M215" s="1">
+        <v>1800</v>
       </c>
       <c r="N215" s="1">
         <v>10</v>
@@ -19011,8 +19011,8 @@
       <c r="L216" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M216" s="1" t="s">
-        <v>455</v>
+      <c r="M216" s="1">
+        <v>1800</v>
       </c>
       <c r="N216" s="1">
         <v>10</v>
@@ -19076,8 +19076,8 @@
       <c r="L217" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M217" s="1" t="s">
-        <v>455</v>
+      <c r="M217" s="1">
+        <v>1800</v>
       </c>
       <c r="N217" s="1">
         <v>10</v>
@@ -19141,8 +19141,8 @@
       <c r="L218" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M218" s="1" t="s">
-        <v>455</v>
+      <c r="M218" s="1">
+        <v>1800</v>
       </c>
       <c r="N218" s="1">
         <v>10</v>
@@ -19206,8 +19206,8 @@
       <c r="L219" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M219" s="1" t="s">
-        <v>455</v>
+      <c r="M219" s="1">
+        <v>1800</v>
       </c>
       <c r="N219" s="1">
         <v>10</v>
@@ -19271,8 +19271,8 @@
       <c r="L220" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M220" s="1" t="s">
-        <v>455</v>
+      <c r="M220" s="1">
+        <v>1800</v>
       </c>
       <c r="N220" s="1">
         <v>10</v>
@@ -19336,8 +19336,8 @@
       <c r="L221" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M221" s="1" t="s">
-        <v>455</v>
+      <c r="M221" s="1">
+        <v>1800</v>
       </c>
       <c r="N221" s="1">
         <v>10</v>
@@ -19401,8 +19401,8 @@
       <c r="L222" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M222" s="1" t="s">
-        <v>455</v>
+      <c r="M222" s="1">
+        <v>1800</v>
       </c>
       <c r="N222" s="1">
         <v>10</v>
@@ -19466,8 +19466,8 @@
       <c r="L223" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M223" s="1" t="s">
-        <v>455</v>
+      <c r="M223" s="1">
+        <v>1800</v>
       </c>
       <c r="N223" s="1">
         <v>10</v>
